--- a/database/industries/urea/kermasha/product/monthly_seprated.xlsx
+++ b/database/industries/urea/kermasha/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="91">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3296,80 +3296,80 @@
       <c r="Q11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R11" s="13" t="s">
-        <v>58</v>
+      <c r="R11" s="13" t="n">
+        <v>54055</v>
       </c>
       <c r="S11" s="13" t="n">
-        <v>54055</v>
+        <v>62586</v>
       </c>
       <c r="T11" s="13" t="n">
-        <v>62586</v>
+        <v>63483</v>
       </c>
       <c r="U11" s="13" t="n">
-        <v>63483</v>
+        <v>63335</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>63335</v>
+        <v>63502</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>63502</v>
+        <v>63454</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>63454</v>
+        <v>62027</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>62027</v>
+        <v>61492</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>61492</v>
+        <v>60794</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>60794</v>
+        <v>12332</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>12332</v>
+        <v>51999</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>51999</v>
+        <v>62086</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>62086</v>
+        <v>63660</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>63660</v>
+        <v>63814</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>63814</v>
+        <v>63630</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>63630</v>
+        <v>62584</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>62584</v>
+        <v>60362</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>60362</v>
+        <v>63629</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>63629</v>
+        <v>61510</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>61510</v>
+        <v>59816</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>59816</v>
+        <v>57748</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>57748</v>
+        <v>50096</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>50096</v>
+        <v>7180</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>7180</v>
-      </c>
-      <c r="AP11" s="13" t="n">
         <v>56986</v>
+      </c>
+      <c r="AP11" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ11" s="13" t="s">
         <v>58</v>
@@ -3455,80 +3455,80 @@
       <c r="Q12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R12" s="16" t="s">
-        <v>58</v>
+      <c r="R12" s="16" t="n">
+        <v>34329</v>
       </c>
       <c r="S12" s="16" t="n">
-        <v>34329</v>
+        <v>70343</v>
       </c>
       <c r="T12" s="16" t="n">
-        <v>70343</v>
+        <v>36055</v>
       </c>
       <c r="U12" s="16" t="n">
-        <v>36055</v>
+        <v>36067</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>36067</v>
+        <v>36047</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>36047</v>
+        <v>36215</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>36215</v>
+        <v>35224</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>35224</v>
+        <v>34939</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>34939</v>
+        <v>34877</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>34877</v>
+        <v>6677</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>6677</v>
+        <v>30461</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>30461</v>
+        <v>35880</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>35880</v>
+        <v>37102</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>37102</v>
+        <v>37095</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>37095</v>
+        <v>36763</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>36763</v>
+        <v>35785</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>35785</v>
+        <v>32988</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>32988</v>
+        <v>36360</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>36360</v>
+        <v>35766</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>35766</v>
+        <v>33819</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>33819</v>
+        <v>33446</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>33446</v>
+        <v>29016</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>29016</v>
+        <v>3597</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>3597</v>
-      </c>
-      <c r="AP12" s="16" t="n">
         <v>32944</v>
+      </c>
+      <c r="AP12" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ12" s="16" t="s">
         <v>58</v>
@@ -3614,8 +3614,8 @@
       <c r="Q13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R13" s="13" t="s">
-        <v>58</v>
+      <c r="R13" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="S13" s="13" t="n">
         <v>0</v>
@@ -3773,8 +3773,8 @@
       <c r="Q14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R14" s="16" t="s">
-        <v>58</v>
+      <c r="R14" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="S14" s="16" t="n">
         <v>0</v>
@@ -4004,44 +4004,44 @@
       <c r="AO15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP15" s="13" t="s">
-        <v>58</v>
+      <c r="AP15" s="13" t="n">
+        <v>63052</v>
       </c>
       <c r="AQ15" s="13" t="n">
-        <v>63052</v>
+        <v>63444</v>
       </c>
       <c r="AR15" s="13" t="n">
-        <v>63444</v>
+        <v>63398</v>
       </c>
       <c r="AS15" s="13" t="n">
-        <v>63398</v>
+        <v>62459</v>
       </c>
       <c r="AT15" s="13" t="n">
-        <v>62459</v>
+        <v>63085</v>
       </c>
       <c r="AU15" s="13" t="n">
-        <v>63085</v>
+        <v>50585</v>
       </c>
       <c r="AV15" s="13" t="n">
-        <v>50585</v>
+        <v>58636</v>
       </c>
       <c r="AW15" s="13" t="n">
-        <v>58636</v>
+        <v>59732</v>
       </c>
       <c r="AX15" s="13" t="n">
-        <v>59732</v>
+        <v>50708</v>
       </c>
       <c r="AY15" s="13" t="n">
-        <v>50708</v>
+        <v>15149</v>
       </c>
       <c r="AZ15" s="13" t="n">
-        <v>15149</v>
+        <v>12530</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>12530</v>
+        <v>56589</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>56589</v>
+        <v>63081</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4163,44 +4163,44 @@
       <c r="AO16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP16" s="16" t="s">
-        <v>58</v>
+      <c r="AP16" s="16" t="n">
+        <v>36701</v>
       </c>
       <c r="AQ16" s="16" t="n">
-        <v>36701</v>
+        <v>36972</v>
       </c>
       <c r="AR16" s="16" t="n">
-        <v>36972</v>
+        <v>37038</v>
       </c>
       <c r="AS16" s="16" t="n">
-        <v>37038</v>
+        <v>36849</v>
       </c>
       <c r="AT16" s="16" t="n">
-        <v>36849</v>
+        <v>36394</v>
       </c>
       <c r="AU16" s="16" t="n">
-        <v>36394</v>
+        <v>32156</v>
       </c>
       <c r="AV16" s="16" t="n">
-        <v>32156</v>
+        <v>34537</v>
       </c>
       <c r="AW16" s="16" t="n">
-        <v>34537</v>
+        <v>34132</v>
       </c>
       <c r="AX16" s="16" t="n">
-        <v>34132</v>
+        <v>29534</v>
       </c>
       <c r="AY16" s="16" t="n">
-        <v>29534</v>
+        <v>9283</v>
       </c>
       <c r="AZ16" s="16" t="n">
-        <v>9283</v>
+        <v>7533</v>
       </c>
       <c r="BA16" s="16" t="n">
-        <v>7533</v>
+        <v>33428</v>
       </c>
       <c r="BB16" s="16" t="n">
-        <v>33428</v>
+        <v>36947</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4249,115 +4249,115 @@
         <v>0</v>
       </c>
       <c r="R17" s="18" t="n">
-        <v>0</v>
+        <v>88384</v>
       </c>
       <c r="S17" s="18" t="n">
-        <v>88384</v>
+        <v>132929</v>
       </c>
       <c r="T17" s="18" t="n">
-        <v>132929</v>
+        <v>99538</v>
       </c>
       <c r="U17" s="18" t="n">
-        <v>99538</v>
+        <v>99402</v>
       </c>
       <c r="V17" s="18" t="n">
-        <v>99402</v>
+        <v>99549</v>
       </c>
       <c r="W17" s="18" t="n">
-        <v>99549</v>
+        <v>99669</v>
       </c>
       <c r="X17" s="18" t="n">
-        <v>99669</v>
+        <v>97251</v>
       </c>
       <c r="Y17" s="18" t="n">
-        <v>97251</v>
+        <v>96431</v>
       </c>
       <c r="Z17" s="18" t="n">
-        <v>96431</v>
+        <v>95671</v>
       </c>
       <c r="AA17" s="18" t="n">
-        <v>95671</v>
+        <v>19009</v>
       </c>
       <c r="AB17" s="18" t="n">
-        <v>19009</v>
+        <v>82460</v>
       </c>
       <c r="AC17" s="18" t="n">
-        <v>82460</v>
+        <v>97966</v>
       </c>
       <c r="AD17" s="18" t="n">
-        <v>97966</v>
+        <v>100762</v>
       </c>
       <c r="AE17" s="18" t="n">
-        <v>100762</v>
+        <v>100909</v>
       </c>
       <c r="AF17" s="18" t="n">
-        <v>100909</v>
+        <v>100393</v>
       </c>
       <c r="AG17" s="18" t="n">
-        <v>100393</v>
+        <v>98369</v>
       </c>
       <c r="AH17" s="18" t="n">
-        <v>98369</v>
+        <v>93350</v>
       </c>
       <c r="AI17" s="18" t="n">
-        <v>93350</v>
+        <v>99989</v>
       </c>
       <c r="AJ17" s="18" t="n">
-        <v>99989</v>
+        <v>97276</v>
       </c>
       <c r="AK17" s="18" t="n">
-        <v>97276</v>
+        <v>93635</v>
       </c>
       <c r="AL17" s="18" t="n">
-        <v>93635</v>
+        <v>91194</v>
       </c>
       <c r="AM17" s="18" t="n">
-        <v>91194</v>
+        <v>79112</v>
       </c>
       <c r="AN17" s="18" t="n">
-        <v>79112</v>
+        <v>10777</v>
       </c>
       <c r="AO17" s="18" t="n">
-        <v>10777</v>
+        <v>89930</v>
       </c>
       <c r="AP17" s="18" t="n">
-        <v>89930</v>
+        <v>99753</v>
       </c>
       <c r="AQ17" s="18" t="n">
-        <v>99753</v>
+        <v>100416</v>
       </c>
       <c r="AR17" s="18" t="n">
-        <v>100416</v>
+        <v>100436</v>
       </c>
       <c r="AS17" s="18" t="n">
-        <v>100436</v>
+        <v>99308</v>
       </c>
       <c r="AT17" s="18" t="n">
-        <v>99308</v>
+        <v>99479</v>
       </c>
       <c r="AU17" s="18" t="n">
-        <v>99479</v>
+        <v>82741</v>
       </c>
       <c r="AV17" s="18" t="n">
-        <v>82741</v>
+        <v>93173</v>
       </c>
       <c r="AW17" s="18" t="n">
-        <v>93173</v>
+        <v>93864</v>
       </c>
       <c r="AX17" s="18" t="n">
-        <v>93864</v>
+        <v>80242</v>
       </c>
       <c r="AY17" s="18" t="n">
-        <v>80242</v>
+        <v>24432</v>
       </c>
       <c r="AZ17" s="18" t="n">
-        <v>24432</v>
+        <v>20063</v>
       </c>
       <c r="BA17" s="18" t="n">
-        <v>20063</v>
+        <v>90017</v>
       </c>
       <c r="BB17" s="18" t="n">
-        <v>90017</v>
+        <v>100028</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4464,8 +4464,8 @@
       <c r="Q19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R19" s="13" t="s">
-        <v>58</v>
+      <c r="R19" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="S19" s="13" t="n">
         <v>0</v>
@@ -4536,8 +4536,8 @@
       <c r="AO19" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP19" s="13" t="n">
-        <v>0</v>
+      <c r="AP19" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ19" s="13" t="s">
         <v>58</v>
@@ -4623,8 +4623,8 @@
       <c r="Q20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R20" s="16" t="s">
-        <v>58</v>
+      <c r="R20" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="S20" s="16" t="n">
         <v>0</v>
@@ -4695,8 +4695,8 @@
       <c r="AO20" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP20" s="16" t="n">
-        <v>0</v>
+      <c r="AP20" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ20" s="16" t="s">
         <v>58</v>
@@ -4854,8 +4854,8 @@
       <c r="AO21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP21" s="13" t="s">
-        <v>58</v>
+      <c r="AP21" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ21" s="13" t="n">
         <v>0</v>
@@ -5013,8 +5013,8 @@
       <c r="AO22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP22" s="16" t="s">
-        <v>58</v>
+      <c r="AP22" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ22" s="16" t="n">
         <v>0</v>
@@ -5202,8 +5202,8 @@
       <c r="AY23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ23" s="13" t="s">
-        <v>58</v>
+      <c r="AZ23" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="BA23" s="13" t="n">
         <v>0</v>
@@ -5361,8 +5361,8 @@
       <c r="AY24" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AZ24" s="16" t="s">
-        <v>58</v>
+      <c r="AZ24" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BA24" s="16" t="n">
         <v>0</v>
@@ -5630,8 +5630,8 @@
       <c r="Q27" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="R27" s="18" t="s">
-        <v>58</v>
+      <c r="R27" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="S27" s="18" t="n">
         <v>0</v>
@@ -5788,115 +5788,115 @@
         <v>0</v>
       </c>
       <c r="R28" s="22" t="n">
-        <v>0</v>
+        <v>88384</v>
       </c>
       <c r="S28" s="22" t="n">
-        <v>88384</v>
+        <v>132929</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>132929</v>
+        <v>99538</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>99538</v>
+        <v>99402</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>99402</v>
+        <v>99549</v>
       </c>
       <c r="W28" s="22" t="n">
-        <v>99549</v>
+        <v>99669</v>
       </c>
       <c r="X28" s="22" t="n">
-        <v>99669</v>
+        <v>97251</v>
       </c>
       <c r="Y28" s="22" t="n">
-        <v>97251</v>
+        <v>96431</v>
       </c>
       <c r="Z28" s="22" t="n">
-        <v>96431</v>
+        <v>95671</v>
       </c>
       <c r="AA28" s="22" t="n">
-        <v>95671</v>
+        <v>19009</v>
       </c>
       <c r="AB28" s="22" t="n">
-        <v>19009</v>
+        <v>82460</v>
       </c>
       <c r="AC28" s="22" t="n">
-        <v>82460</v>
+        <v>97966</v>
       </c>
       <c r="AD28" s="22" t="n">
-        <v>97966</v>
+        <v>100762</v>
       </c>
       <c r="AE28" s="22" t="n">
-        <v>100762</v>
+        <v>100909</v>
       </c>
       <c r="AF28" s="22" t="n">
-        <v>100909</v>
+        <v>100393</v>
       </c>
       <c r="AG28" s="22" t="n">
-        <v>100393</v>
+        <v>98369</v>
       </c>
       <c r="AH28" s="22" t="n">
-        <v>98369</v>
+        <v>93350</v>
       </c>
       <c r="AI28" s="22" t="n">
-        <v>93350</v>
+        <v>99989</v>
       </c>
       <c r="AJ28" s="22" t="n">
-        <v>99989</v>
+        <v>97276</v>
       </c>
       <c r="AK28" s="22" t="n">
-        <v>97276</v>
+        <v>93635</v>
       </c>
       <c r="AL28" s="22" t="n">
-        <v>93635</v>
+        <v>91194</v>
       </c>
       <c r="AM28" s="22" t="n">
-        <v>91194</v>
+        <v>79112</v>
       </c>
       <c r="AN28" s="22" t="n">
-        <v>79112</v>
+        <v>10777</v>
       </c>
       <c r="AO28" s="22" t="n">
-        <v>10777</v>
+        <v>89930</v>
       </c>
       <c r="AP28" s="22" t="n">
-        <v>89930</v>
+        <v>99753</v>
       </c>
       <c r="AQ28" s="22" t="n">
-        <v>99753</v>
+        <v>100416</v>
       </c>
       <c r="AR28" s="22" t="n">
-        <v>100416</v>
+        <v>100436</v>
       </c>
       <c r="AS28" s="22" t="n">
-        <v>100436</v>
+        <v>99308</v>
       </c>
       <c r="AT28" s="22" t="n">
-        <v>99308</v>
+        <v>99479</v>
       </c>
       <c r="AU28" s="22" t="n">
-        <v>99479</v>
+        <v>82741</v>
       </c>
       <c r="AV28" s="22" t="n">
-        <v>82741</v>
+        <v>93173</v>
       </c>
       <c r="AW28" s="22" t="n">
-        <v>93173</v>
+        <v>93864</v>
       </c>
       <c r="AX28" s="22" t="n">
-        <v>93864</v>
+        <v>80242</v>
       </c>
       <c r="AY28" s="22" t="n">
-        <v>80242</v>
+        <v>24432</v>
       </c>
       <c r="AZ28" s="22" t="n">
-        <v>24432</v>
+        <v>20063</v>
       </c>
       <c r="BA28" s="22" t="n">
-        <v>20063</v>
+        <v>90017</v>
       </c>
       <c r="BB28" s="22" t="n">
-        <v>90017</v>
+        <v>100028</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6380,8 +6380,8 @@
       <c r="Q35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R35" s="13" t="s">
-        <v>58</v>
+      <c r="R35" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="S35" s="13" t="n">
         <v>0</v>
@@ -6452,8 +6452,8 @@
       <c r="AO35" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP35" s="13" t="n">
-        <v>0</v>
+      <c r="AP35" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ35" s="13" t="s">
         <v>58</v>
@@ -6539,80 +6539,80 @@
       <c r="Q36" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R36" s="16" t="s">
-        <v>58</v>
+      <c r="R36" s="16" t="n">
+        <v>171</v>
       </c>
       <c r="S36" s="16" t="n">
-        <v>171</v>
+        <v>550</v>
       </c>
       <c r="T36" s="16" t="n">
-        <v>550</v>
+        <v>1462</v>
       </c>
       <c r="U36" s="16" t="n">
-        <v>1462</v>
+        <v>438</v>
       </c>
       <c r="V36" s="16" t="n">
-        <v>438</v>
+        <v>170</v>
       </c>
       <c r="W36" s="16" t="n">
-        <v>170</v>
+        <v>666</v>
       </c>
       <c r="X36" s="16" t="n">
-        <v>666</v>
+        <v>55</v>
       </c>
       <c r="Y36" s="16" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Z36" s="16" t="n">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="AA36" s="16" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="16" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AC36" s="16" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AD36" s="16" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE36" s="16" t="n">
-        <v>9</v>
+        <v>240</v>
       </c>
       <c r="AF36" s="16" t="n">
-        <v>240</v>
+        <v>683</v>
       </c>
       <c r="AG36" s="16" t="n">
-        <v>683</v>
+        <v>162</v>
       </c>
       <c r="AH36" s="16" t="n">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="AI36" s="16" t="n">
-        <v>120</v>
+        <v>234</v>
       </c>
       <c r="AJ36" s="16" t="n">
-        <v>234</v>
+        <v>105</v>
       </c>
       <c r="AK36" s="16" t="n">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="AL36" s="16" t="n">
-        <v>160</v>
+        <v>339</v>
       </c>
       <c r="AM36" s="16" t="n">
-        <v>339</v>
+        <v>2</v>
       </c>
       <c r="AN36" s="16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO36" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP36" s="16" t="n">
         <v>42</v>
+      </c>
+      <c r="AP36" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ36" s="16" t="s">
         <v>58</v>
@@ -6698,116 +6698,116 @@
       <c r="Q37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R37" s="13" t="s">
-        <v>58</v>
+      <c r="R37" s="13" t="n">
+        <v>16293</v>
       </c>
       <c r="S37" s="13" t="n">
-        <v>16293</v>
+        <v>30915</v>
       </c>
       <c r="T37" s="13" t="n">
-        <v>30915</v>
+        <v>15918</v>
       </c>
       <c r="U37" s="13" t="n">
-        <v>15918</v>
+        <v>12199</v>
       </c>
       <c r="V37" s="13" t="n">
-        <v>12199</v>
+        <v>9092</v>
       </c>
       <c r="W37" s="13" t="n">
-        <v>9092</v>
+        <v>22124</v>
       </c>
       <c r="X37" s="13" t="n">
-        <v>22124</v>
+        <v>19472</v>
       </c>
       <c r="Y37" s="13" t="n">
-        <v>19472</v>
+        <v>19137</v>
       </c>
       <c r="Z37" s="13" t="n">
-        <v>19137</v>
+        <v>15241</v>
       </c>
       <c r="AA37" s="13" t="n">
-        <v>15241</v>
+        <v>15493</v>
       </c>
       <c r="AB37" s="13" t="n">
-        <v>15493</v>
+        <v>29129</v>
       </c>
       <c r="AC37" s="13" t="n">
-        <v>29129</v>
+        <v>29950</v>
       </c>
       <c r="AD37" s="13" t="n">
-        <v>29950</v>
+        <v>26525</v>
       </c>
       <c r="AE37" s="13" t="n">
-        <v>26525</v>
+        <v>24446</v>
       </c>
       <c r="AF37" s="13" t="n">
-        <v>24446</v>
+        <v>12368</v>
       </c>
       <c r="AG37" s="13" t="n">
-        <v>12368</v>
+        <v>18990</v>
       </c>
       <c r="AH37" s="13" t="n">
-        <v>18990</v>
+        <v>16785</v>
       </c>
       <c r="AI37" s="13" t="n">
-        <v>16785</v>
+        <v>19663</v>
       </c>
       <c r="AJ37" s="13" t="n">
-        <v>19663</v>
+        <v>23554</v>
       </c>
       <c r="AK37" s="13" t="n">
-        <v>23554</v>
+        <v>19088</v>
       </c>
       <c r="AL37" s="13" t="n">
-        <v>19088</v>
+        <v>21273</v>
       </c>
       <c r="AM37" s="13" t="n">
-        <v>21273</v>
+        <v>29437</v>
       </c>
       <c r="AN37" s="13" t="n">
-        <v>29437</v>
+        <v>6364</v>
       </c>
       <c r="AO37" s="13" t="n">
-        <v>6364</v>
+        <v>16972</v>
       </c>
       <c r="AP37" s="13" t="n">
-        <v>16972</v>
+        <v>15820</v>
       </c>
       <c r="AQ37" s="13" t="n">
-        <v>15820</v>
+        <v>17628</v>
       </c>
       <c r="AR37" s="13" t="n">
-        <v>17628</v>
+        <v>14250</v>
       </c>
       <c r="AS37" s="13" t="n">
-        <v>14250</v>
+        <v>10577</v>
       </c>
       <c r="AT37" s="13" t="n">
-        <v>10577</v>
+        <v>23340</v>
       </c>
       <c r="AU37" s="13" t="n">
-        <v>23340</v>
+        <v>15629</v>
       </c>
       <c r="AV37" s="13" t="n">
-        <v>15629</v>
+        <v>15026</v>
       </c>
       <c r="AW37" s="13" t="n">
-        <v>15026</v>
+        <v>4015</v>
       </c>
       <c r="AX37" s="13" t="n">
-        <v>4015</v>
+        <v>20505</v>
       </c>
       <c r="AY37" s="13" t="n">
-        <v>20505</v>
+        <v>19826</v>
       </c>
       <c r="AZ37" s="13" t="n">
-        <v>19826</v>
+        <v>7383</v>
       </c>
       <c r="BA37" s="13" t="n">
-        <v>7383</v>
+        <v>19507</v>
       </c>
       <c r="BB37" s="13" t="n">
-        <v>19507</v>
+        <v>18904</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6857,116 +6857,116 @@
       <c r="Q38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R38" s="16" t="s">
-        <v>58</v>
+      <c r="R38" s="16" t="n">
+        <v>350</v>
       </c>
       <c r="S38" s="16" t="n">
-        <v>350</v>
+        <v>1891</v>
       </c>
       <c r="T38" s="16" t="n">
-        <v>1891</v>
+        <v>11336</v>
       </c>
       <c r="U38" s="16" t="n">
-        <v>11336</v>
+        <v>6175</v>
       </c>
       <c r="V38" s="16" t="n">
-        <v>6175</v>
+        <v>9878</v>
       </c>
       <c r="W38" s="16" t="n">
-        <v>9878</v>
+        <v>12690</v>
       </c>
       <c r="X38" s="16" t="n">
-        <v>12690</v>
+        <v>8774</v>
       </c>
       <c r="Y38" s="16" t="n">
-        <v>8774</v>
+        <v>7947</v>
       </c>
       <c r="Z38" s="16" t="n">
-        <v>7947</v>
+        <v>11927</v>
       </c>
       <c r="AA38" s="16" t="n">
-        <v>11927</v>
+        <v>6023</v>
       </c>
       <c r="AB38" s="16" t="n">
-        <v>6023</v>
+        <v>5502</v>
       </c>
       <c r="AC38" s="16" t="n">
-        <v>5502</v>
+        <v>10527</v>
       </c>
       <c r="AD38" s="16" t="n">
-        <v>10527</v>
+        <v>3099</v>
       </c>
       <c r="AE38" s="16" t="n">
-        <v>3099</v>
+        <v>10817</v>
       </c>
       <c r="AF38" s="16" t="n">
-        <v>10817</v>
+        <v>9682</v>
       </c>
       <c r="AG38" s="16" t="n">
-        <v>9682</v>
+        <v>7103</v>
       </c>
       <c r="AH38" s="16" t="n">
-        <v>7103</v>
+        <v>2575</v>
       </c>
       <c r="AI38" s="16" t="n">
-        <v>2575</v>
+        <v>5951</v>
       </c>
       <c r="AJ38" s="16" t="n">
-        <v>5951</v>
+        <v>2127</v>
       </c>
       <c r="AK38" s="16" t="n">
-        <v>2127</v>
+        <v>5700</v>
       </c>
       <c r="AL38" s="16" t="n">
-        <v>5700</v>
+        <v>9991</v>
       </c>
       <c r="AM38" s="16" t="n">
-        <v>9991</v>
+        <v>5315</v>
       </c>
       <c r="AN38" s="16" t="n">
-        <v>5315</v>
+        <v>4475</v>
       </c>
       <c r="AO38" s="16" t="n">
-        <v>4475</v>
+        <v>3401</v>
       </c>
       <c r="AP38" s="16" t="n">
-        <v>3401</v>
+        <v>450</v>
       </c>
       <c r="AQ38" s="16" t="n">
-        <v>450</v>
+        <v>2802</v>
       </c>
       <c r="AR38" s="16" t="n">
-        <v>2802</v>
+        <v>8533</v>
       </c>
       <c r="AS38" s="16" t="n">
-        <v>8533</v>
+        <v>5534</v>
       </c>
       <c r="AT38" s="16" t="n">
-        <v>5534</v>
+        <v>2621</v>
       </c>
       <c r="AU38" s="16" t="n">
-        <v>2621</v>
+        <v>5940</v>
       </c>
       <c r="AV38" s="16" t="n">
-        <v>5940</v>
+        <v>593</v>
       </c>
       <c r="AW38" s="16" t="n">
-        <v>593</v>
+        <v>3014</v>
       </c>
       <c r="AX38" s="16" t="n">
-        <v>3014</v>
+        <v>6056</v>
       </c>
       <c r="AY38" s="16" t="n">
-        <v>6056</v>
+        <v>2436</v>
       </c>
       <c r="AZ38" s="16" t="n">
-        <v>2436</v>
+        <v>3006</v>
       </c>
       <c r="BA38" s="16" t="n">
-        <v>3006</v>
+        <v>4915</v>
       </c>
       <c r="BB38" s="16" t="n">
-        <v>4915</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7088,8 +7088,8 @@
       <c r="AO39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP39" s="13" t="s">
-        <v>58</v>
+      <c r="AP39" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ39" s="13" t="n">
         <v>0</v>
@@ -7247,44 +7247,44 @@
       <c r="AO40" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP40" s="16" t="s">
-        <v>58</v>
+      <c r="AP40" s="16" t="n">
+        <v>21</v>
       </c>
       <c r="AQ40" s="16" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AR40" s="16" t="n">
-        <v>24</v>
+        <v>418</v>
       </c>
       <c r="AS40" s="16" t="n">
-        <v>418</v>
+        <v>81</v>
       </c>
       <c r="AT40" s="16" t="n">
-        <v>81</v>
+        <v>941</v>
       </c>
       <c r="AU40" s="16" t="n">
-        <v>941</v>
+        <v>803</v>
       </c>
       <c r="AV40" s="16" t="n">
-        <v>803</v>
+        <v>107</v>
       </c>
       <c r="AW40" s="16" t="n">
-        <v>107</v>
+        <v>758</v>
       </c>
       <c r="AX40" s="16" t="n">
-        <v>758</v>
+        <v>884</v>
       </c>
       <c r="AY40" s="16" t="n">
-        <v>884</v>
+        <v>143</v>
       </c>
       <c r="AZ40" s="16" t="n">
-        <v>143</v>
+        <v>802</v>
       </c>
       <c r="BA40" s="16" t="n">
-        <v>802</v>
+        <v>616</v>
       </c>
       <c r="BB40" s="16" t="n">
-        <v>616</v>
+        <v>426</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7333,115 +7333,115 @@
         <v>0</v>
       </c>
       <c r="R41" s="18" t="n">
-        <v>0</v>
+        <v>16814</v>
       </c>
       <c r="S41" s="18" t="n">
-        <v>16814</v>
+        <v>33356</v>
       </c>
       <c r="T41" s="18" t="n">
-        <v>33356</v>
+        <v>28716</v>
       </c>
       <c r="U41" s="18" t="n">
-        <v>28716</v>
+        <v>18812</v>
       </c>
       <c r="V41" s="18" t="n">
-        <v>18812</v>
+        <v>19140</v>
       </c>
       <c r="W41" s="18" t="n">
-        <v>19140</v>
+        <v>35480</v>
       </c>
       <c r="X41" s="18" t="n">
-        <v>35480</v>
+        <v>28301</v>
       </c>
       <c r="Y41" s="18" t="n">
-        <v>28301</v>
+        <v>27130</v>
       </c>
       <c r="Z41" s="18" t="n">
-        <v>27130</v>
+        <v>27358</v>
       </c>
       <c r="AA41" s="18" t="n">
-        <v>27358</v>
+        <v>21516</v>
       </c>
       <c r="AB41" s="18" t="n">
-        <v>21516</v>
+        <v>34659</v>
       </c>
       <c r="AC41" s="18" t="n">
-        <v>34659</v>
+        <v>40489</v>
       </c>
       <c r="AD41" s="18" t="n">
-        <v>40489</v>
+        <v>29633</v>
       </c>
       <c r="AE41" s="18" t="n">
-        <v>29633</v>
+        <v>35503</v>
       </c>
       <c r="AF41" s="18" t="n">
-        <v>35503</v>
+        <v>22733</v>
       </c>
       <c r="AG41" s="18" t="n">
-        <v>22733</v>
+        <v>26255</v>
       </c>
       <c r="AH41" s="18" t="n">
-        <v>26255</v>
+        <v>19480</v>
       </c>
       <c r="AI41" s="18" t="n">
-        <v>19480</v>
+        <v>25848</v>
       </c>
       <c r="AJ41" s="18" t="n">
-        <v>25848</v>
+        <v>25786</v>
       </c>
       <c r="AK41" s="18" t="n">
-        <v>25786</v>
+        <v>24948</v>
       </c>
       <c r="AL41" s="18" t="n">
-        <v>24948</v>
+        <v>31603</v>
       </c>
       <c r="AM41" s="18" t="n">
-        <v>31603</v>
+        <v>34754</v>
       </c>
       <c r="AN41" s="18" t="n">
-        <v>34754</v>
+        <v>10839</v>
       </c>
       <c r="AO41" s="18" t="n">
-        <v>10839</v>
+        <v>20415</v>
       </c>
       <c r="AP41" s="18" t="n">
-        <v>20415</v>
+        <v>16291</v>
       </c>
       <c r="AQ41" s="18" t="n">
-        <v>16291</v>
+        <v>20454</v>
       </c>
       <c r="AR41" s="18" t="n">
-        <v>20454</v>
+        <v>23201</v>
       </c>
       <c r="AS41" s="18" t="n">
-        <v>23201</v>
+        <v>16192</v>
       </c>
       <c r="AT41" s="18" t="n">
-        <v>16192</v>
+        <v>26902</v>
       </c>
       <c r="AU41" s="18" t="n">
-        <v>26902</v>
+        <v>22372</v>
       </c>
       <c r="AV41" s="18" t="n">
-        <v>22372</v>
+        <v>15726</v>
       </c>
       <c r="AW41" s="18" t="n">
-        <v>15726</v>
+        <v>7787</v>
       </c>
       <c r="AX41" s="18" t="n">
-        <v>7787</v>
+        <v>27445</v>
       </c>
       <c r="AY41" s="18" t="n">
-        <v>27445</v>
+        <v>22405</v>
       </c>
       <c r="AZ41" s="18" t="n">
-        <v>22405</v>
+        <v>11191</v>
       </c>
       <c r="BA41" s="18" t="n">
-        <v>11191</v>
+        <v>25038</v>
       </c>
       <c r="BB41" s="18" t="n">
-        <v>25038</v>
+        <v>21142</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7548,80 +7548,80 @@
       <c r="Q43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R43" s="13" t="s">
-        <v>58</v>
+      <c r="R43" s="13" t="n">
+        <v>36985</v>
       </c>
       <c r="S43" s="13" t="n">
-        <v>36985</v>
+        <v>6700</v>
       </c>
       <c r="T43" s="13" t="n">
-        <v>6700</v>
+        <v>34344</v>
       </c>
       <c r="U43" s="13" t="n">
-        <v>34344</v>
+        <v>3402</v>
       </c>
       <c r="V43" s="13" t="n">
-        <v>3402</v>
+        <v>11250</v>
       </c>
       <c r="W43" s="13" t="n">
-        <v>11250</v>
+        <v>87380</v>
       </c>
       <c r="X43" s="13" t="n">
-        <v>87380</v>
+        <v>10169</v>
       </c>
       <c r="Y43" s="13" t="n">
-        <v>10169</v>
+        <v>49000</v>
       </c>
       <c r="Z43" s="13" t="n">
-        <v>49000</v>
+        <v>14198</v>
       </c>
       <c r="AA43" s="13" t="n">
-        <v>14198</v>
+        <v>59206</v>
       </c>
       <c r="AB43" s="13" t="n">
-        <v>59206</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="13" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AD43" s="13" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AE43" s="13" t="n">
-        <v>400</v>
+        <v>21799</v>
       </c>
       <c r="AF43" s="13" t="n">
-        <v>21799</v>
+        <v>68243</v>
       </c>
       <c r="AG43" s="13" t="n">
-        <v>68243</v>
+        <v>36048</v>
       </c>
       <c r="AH43" s="13" t="n">
-        <v>36048</v>
+        <v>20452</v>
       </c>
       <c r="AI43" s="13" t="n">
-        <v>20452</v>
+        <v>36449</v>
       </c>
       <c r="AJ43" s="13" t="n">
-        <v>36449</v>
+        <v>28290</v>
       </c>
       <c r="AK43" s="13" t="n">
-        <v>28290</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="13" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
       <c r="AM43" s="13" t="n">
-        <v>746</v>
+        <v>24987</v>
       </c>
       <c r="AN43" s="13" t="n">
-        <v>24987</v>
+        <v>3124</v>
       </c>
       <c r="AO43" s="13" t="n">
-        <v>3124</v>
-      </c>
-      <c r="AP43" s="13" t="n">
         <v>126177</v>
+      </c>
+      <c r="AP43" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ43" s="13" t="s">
         <v>58</v>
@@ -7707,35 +7707,35 @@
       <c r="Q44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R44" s="16" t="s">
-        <v>58</v>
+      <c r="R44" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="S44" s="16" t="n">
         <v>0</v>
       </c>
       <c r="T44" s="16" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="U44" s="16" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="V44" s="16" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="W44" s="16" t="n">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="X44" s="16" t="n">
-        <v>351</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="16" t="n">
         <v>0</v>
       </c>
       <c r="Z44" s="16" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="AA44" s="16" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="16" t="n">
         <v>0</v>
@@ -7747,40 +7747,40 @@
         <v>0</v>
       </c>
       <c r="AE44" s="16" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AF44" s="16" t="n">
         <v>500</v>
       </c>
       <c r="AG44" s="16" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AH44" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AI44" s="16" t="n">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="AJ44" s="16" t="n">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AK44" s="16" t="n">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="AL44" s="16" t="n">
-        <v>555</v>
+        <v>266</v>
       </c>
       <c r="AM44" s="16" t="n">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="AN44" s="16" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AO44" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP44" s="16" t="n">
         <v>100</v>
+      </c>
+      <c r="AP44" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ44" s="16" t="s">
         <v>58</v>
@@ -7938,38 +7938,38 @@
       <c r="AO45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP45" s="13" t="s">
-        <v>58</v>
+      <c r="AP45" s="13" t="n">
+        <v>9484</v>
       </c>
       <c r="AQ45" s="13" t="n">
-        <v>9484</v>
+        <v>31425</v>
       </c>
       <c r="AR45" s="13" t="n">
-        <v>31425</v>
+        <v>34050</v>
       </c>
       <c r="AS45" s="13" t="n">
-        <v>34050</v>
+        <v>14575</v>
       </c>
       <c r="AT45" s="13" t="n">
-        <v>14575</v>
+        <v>19668</v>
       </c>
       <c r="AU45" s="13" t="n">
-        <v>19668</v>
+        <v>49230</v>
       </c>
       <c r="AV45" s="13" t="n">
-        <v>49230</v>
+        <v>42704</v>
       </c>
       <c r="AW45" s="13" t="n">
-        <v>42704</v>
+        <v>37064</v>
       </c>
       <c r="AX45" s="13" t="n">
-        <v>37064</v>
+        <v>17009</v>
       </c>
       <c r="AY45" s="13" t="n">
-        <v>17009</v>
+        <v>67770</v>
       </c>
       <c r="AZ45" s="13" t="n">
-        <v>67770</v>
+        <v>0</v>
       </c>
       <c r="BA45" s="13" t="n">
         <v>0</v>
@@ -8097,44 +8097,44 @@
       <c r="AO46" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP46" s="16" t="s">
-        <v>58</v>
+      <c r="AP46" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ46" s="16" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AR46" s="16" t="n">
-        <v>160</v>
+        <v>1306</v>
       </c>
       <c r="AS46" s="16" t="n">
-        <v>1306</v>
+        <v>194</v>
       </c>
       <c r="AT46" s="16" t="n">
-        <v>194</v>
+        <v>499</v>
       </c>
       <c r="AU46" s="16" t="n">
-        <v>499</v>
+        <v>888</v>
       </c>
       <c r="AV46" s="16" t="n">
-        <v>888</v>
+        <v>9</v>
       </c>
       <c r="AW46" s="16" t="n">
-        <v>9</v>
+        <v>600</v>
       </c>
       <c r="AX46" s="16" t="n">
-        <v>600</v>
+        <v>1783</v>
       </c>
       <c r="AY46" s="16" t="n">
-        <v>1783</v>
+        <v>628</v>
       </c>
       <c r="AZ46" s="16" t="n">
-        <v>628</v>
+        <v>360</v>
       </c>
       <c r="BA46" s="16" t="n">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="BB46" s="16" t="n">
-        <v>333</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8286,14 +8286,14 @@
       <c r="AY47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ47" s="13" t="s">
-        <v>58</v>
+      <c r="AZ47" s="13" t="n">
+        <v>15612</v>
       </c>
       <c r="BA47" s="13" t="n">
-        <v>15612</v>
+        <v>22479</v>
       </c>
       <c r="BB47" s="13" t="n">
-        <v>22479</v>
+        <v>7099</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8445,14 +8445,14 @@
       <c r="AY48" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AZ48" s="16" t="s">
-        <v>58</v>
+      <c r="AZ48" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BA48" s="16" t="n">
-        <v>0</v>
+        <v>30500</v>
       </c>
       <c r="BB48" s="16" t="n">
-        <v>30500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8501,115 +8501,115 @@
         <v>0</v>
       </c>
       <c r="R49" s="18" t="n">
-        <v>0</v>
+        <v>36985</v>
       </c>
       <c r="S49" s="18" t="n">
-        <v>36985</v>
+        <v>6700</v>
       </c>
       <c r="T49" s="18" t="n">
-        <v>6700</v>
+        <v>34384</v>
       </c>
       <c r="U49" s="18" t="n">
-        <v>34384</v>
+        <v>3466</v>
       </c>
       <c r="V49" s="18" t="n">
-        <v>3466</v>
+        <v>11250</v>
       </c>
       <c r="W49" s="18" t="n">
-        <v>11250</v>
+        <v>87731</v>
       </c>
       <c r="X49" s="18" t="n">
-        <v>87731</v>
+        <v>10169</v>
       </c>
       <c r="Y49" s="18" t="n">
-        <v>10169</v>
+        <v>49000</v>
       </c>
       <c r="Z49" s="18" t="n">
-        <v>49000</v>
+        <v>14341</v>
       </c>
       <c r="AA49" s="18" t="n">
-        <v>14341</v>
+        <v>59206</v>
       </c>
       <c r="AB49" s="18" t="n">
-        <v>59206</v>
+        <v>0</v>
       </c>
       <c r="AC49" s="18" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AD49" s="18" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AE49" s="18" t="n">
-        <v>400</v>
+        <v>22299</v>
       </c>
       <c r="AF49" s="18" t="n">
-        <v>22299</v>
+        <v>68743</v>
       </c>
       <c r="AG49" s="18" t="n">
-        <v>68743</v>
+        <v>36048</v>
       </c>
       <c r="AH49" s="18" t="n">
-        <v>36048</v>
+        <v>20452</v>
       </c>
       <c r="AI49" s="18" t="n">
-        <v>20452</v>
+        <v>37019</v>
       </c>
       <c r="AJ49" s="18" t="n">
-        <v>37019</v>
+        <v>28290</v>
       </c>
       <c r="AK49" s="18" t="n">
-        <v>28290</v>
+        <v>555</v>
       </c>
       <c r="AL49" s="18" t="n">
-        <v>555</v>
+        <v>1012</v>
       </c>
       <c r="AM49" s="18" t="n">
-        <v>1012</v>
+        <v>25008</v>
       </c>
       <c r="AN49" s="18" t="n">
-        <v>25008</v>
+        <v>3124</v>
       </c>
       <c r="AO49" s="18" t="n">
-        <v>3124</v>
+        <v>126277</v>
       </c>
       <c r="AP49" s="18" t="n">
-        <v>126277</v>
+        <v>9484</v>
       </c>
       <c r="AQ49" s="18" t="n">
-        <v>9484</v>
+        <v>31585</v>
       </c>
       <c r="AR49" s="18" t="n">
-        <v>31585</v>
+        <v>35356</v>
       </c>
       <c r="AS49" s="18" t="n">
-        <v>35356</v>
+        <v>14769</v>
       </c>
       <c r="AT49" s="18" t="n">
-        <v>14769</v>
+        <v>20167</v>
       </c>
       <c r="AU49" s="18" t="n">
-        <v>20167</v>
+        <v>50118</v>
       </c>
       <c r="AV49" s="18" t="n">
-        <v>50118</v>
+        <v>42713</v>
       </c>
       <c r="AW49" s="18" t="n">
-        <v>42713</v>
+        <v>37664</v>
       </c>
       <c r="AX49" s="18" t="n">
-        <v>37664</v>
+        <v>18792</v>
       </c>
       <c r="AY49" s="18" t="n">
-        <v>18792</v>
+        <v>68398</v>
       </c>
       <c r="AZ49" s="18" t="n">
-        <v>68398</v>
+        <v>15972</v>
       </c>
       <c r="BA49" s="18" t="n">
-        <v>15972</v>
+        <v>53312</v>
       </c>
       <c r="BB49" s="18" t="n">
-        <v>53312</v>
+        <v>7118</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8714,8 +8714,8 @@
       <c r="Q51" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="R51" s="18" t="s">
-        <v>58</v>
+      <c r="R51" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="S51" s="18" t="n">
         <v>0</v>
@@ -8928,8 +8928,8 @@
       <c r="Q53" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="R53" s="18" t="s">
-        <v>58</v>
+      <c r="R53" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="S53" s="18" t="n">
         <v>0</v>
@@ -9086,115 +9086,115 @@
         <v>0</v>
       </c>
       <c r="R54" s="22" t="n">
-        <v>0</v>
+        <v>53799</v>
       </c>
       <c r="S54" s="22" t="n">
-        <v>53799</v>
+        <v>40056</v>
       </c>
       <c r="T54" s="22" t="n">
-        <v>40056</v>
+        <v>63100</v>
       </c>
       <c r="U54" s="22" t="n">
-        <v>63100</v>
+        <v>22278</v>
       </c>
       <c r="V54" s="22" t="n">
-        <v>22278</v>
+        <v>30390</v>
       </c>
       <c r="W54" s="22" t="n">
-        <v>30390</v>
+        <v>123211</v>
       </c>
       <c r="X54" s="22" t="n">
-        <v>123211</v>
+        <v>38470</v>
       </c>
       <c r="Y54" s="22" t="n">
-        <v>38470</v>
+        <v>76130</v>
       </c>
       <c r="Z54" s="22" t="n">
-        <v>76130</v>
+        <v>41699</v>
       </c>
       <c r="AA54" s="22" t="n">
-        <v>41699</v>
+        <v>80722</v>
       </c>
       <c r="AB54" s="22" t="n">
-        <v>80722</v>
+        <v>34659</v>
       </c>
       <c r="AC54" s="22" t="n">
-        <v>34659</v>
+        <v>40989</v>
       </c>
       <c r="AD54" s="22" t="n">
-        <v>40989</v>
+        <v>30033</v>
       </c>
       <c r="AE54" s="22" t="n">
-        <v>30033</v>
+        <v>57802</v>
       </c>
       <c r="AF54" s="22" t="n">
-        <v>57802</v>
+        <v>91476</v>
       </c>
       <c r="AG54" s="22" t="n">
-        <v>91476</v>
+        <v>62303</v>
       </c>
       <c r="AH54" s="22" t="n">
-        <v>62303</v>
+        <v>39932</v>
       </c>
       <c r="AI54" s="22" t="n">
-        <v>39932</v>
+        <v>62867</v>
       </c>
       <c r="AJ54" s="22" t="n">
-        <v>62867</v>
+        <v>54076</v>
       </c>
       <c r="AK54" s="22" t="n">
-        <v>54076</v>
+        <v>25503</v>
       </c>
       <c r="AL54" s="22" t="n">
-        <v>25503</v>
+        <v>32615</v>
       </c>
       <c r="AM54" s="22" t="n">
-        <v>32615</v>
+        <v>59762</v>
       </c>
       <c r="AN54" s="22" t="n">
-        <v>59762</v>
+        <v>13963</v>
       </c>
       <c r="AO54" s="22" t="n">
-        <v>13963</v>
+        <v>146692</v>
       </c>
       <c r="AP54" s="22" t="n">
-        <v>146692</v>
+        <v>25775</v>
       </c>
       <c r="AQ54" s="22" t="n">
-        <v>25775</v>
+        <v>52039</v>
       </c>
       <c r="AR54" s="22" t="n">
-        <v>52039</v>
+        <v>58557</v>
       </c>
       <c r="AS54" s="22" t="n">
-        <v>58557</v>
+        <v>30961</v>
       </c>
       <c r="AT54" s="22" t="n">
-        <v>30961</v>
+        <v>47069</v>
       </c>
       <c r="AU54" s="22" t="n">
-        <v>47069</v>
+        <v>72490</v>
       </c>
       <c r="AV54" s="22" t="n">
-        <v>72490</v>
+        <v>58439</v>
       </c>
       <c r="AW54" s="22" t="n">
-        <v>58439</v>
+        <v>45451</v>
       </c>
       <c r="AX54" s="22" t="n">
-        <v>45451</v>
+        <v>46237</v>
       </c>
       <c r="AY54" s="22" t="n">
-        <v>46237</v>
+        <v>90803</v>
       </c>
       <c r="AZ54" s="22" t="n">
-        <v>90803</v>
+        <v>27163</v>
       </c>
       <c r="BA54" s="22" t="n">
-        <v>27163</v>
+        <v>78350</v>
       </c>
       <c r="BB54" s="22" t="n">
-        <v>78350</v>
+        <v>28260</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9678,8 +9678,8 @@
       <c r="Q61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R61" s="13" t="s">
-        <v>58</v>
+      <c r="R61" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="S61" s="13" t="n">
         <v>0</v>
@@ -9750,8 +9750,8 @@
       <c r="AO61" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP61" s="13" t="n">
-        <v>0</v>
+      <c r="AP61" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ61" s="13" t="s">
         <v>58</v>
@@ -9837,80 +9837,80 @@
       <c r="Q62" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R62" s="16" t="s">
-        <v>58</v>
+      <c r="R62" s="16" t="n">
+        <v>2819</v>
       </c>
       <c r="S62" s="16" t="n">
-        <v>2819</v>
+        <v>8062</v>
       </c>
       <c r="T62" s="16" t="n">
-        <v>8062</v>
+        <v>17930</v>
       </c>
       <c r="U62" s="16" t="n">
-        <v>17930</v>
+        <v>6409</v>
       </c>
       <c r="V62" s="16" t="n">
-        <v>6409</v>
+        <v>2647</v>
       </c>
       <c r="W62" s="16" t="n">
-        <v>2647</v>
+        <v>11316</v>
       </c>
       <c r="X62" s="16" t="n">
-        <v>11316</v>
+        <v>1339</v>
       </c>
       <c r="Y62" s="16" t="n">
-        <v>1339</v>
+        <v>1228</v>
       </c>
       <c r="Z62" s="16" t="n">
-        <v>1228</v>
+        <v>4508</v>
       </c>
       <c r="AA62" s="16" t="n">
-        <v>4508</v>
+        <v>0</v>
       </c>
       <c r="AB62" s="16" t="n">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="AC62" s="16" t="n">
-        <v>478</v>
+        <v>282</v>
       </c>
       <c r="AD62" s="16" t="n">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="AE62" s="16" t="n">
-        <v>256</v>
+        <v>9463</v>
       </c>
       <c r="AF62" s="16" t="n">
-        <v>9463</v>
+        <v>32866</v>
       </c>
       <c r="AG62" s="16" t="n">
-        <v>32866</v>
+        <v>9198</v>
       </c>
       <c r="AH62" s="16" t="n">
-        <v>9198</v>
+        <v>8200</v>
       </c>
       <c r="AI62" s="16" t="n">
-        <v>8200</v>
+        <v>17619</v>
       </c>
       <c r="AJ62" s="16" t="n">
-        <v>17619</v>
+        <v>8038</v>
       </c>
       <c r="AK62" s="16" t="n">
-        <v>8038</v>
+        <v>14666</v>
       </c>
       <c r="AL62" s="16" t="n">
-        <v>14666</v>
+        <v>33121</v>
       </c>
       <c r="AM62" s="16" t="n">
-        <v>33121</v>
+        <v>239</v>
       </c>
       <c r="AN62" s="16" t="n">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="AO62" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP62" s="16" t="n">
         <v>4536</v>
+      </c>
+      <c r="AP62" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ62" s="16" t="s">
         <v>58</v>
@@ -9996,116 +9996,116 @@
       <c r="Q63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R63" s="13" t="s">
-        <v>58</v>
+      <c r="R63" s="13" t="n">
+        <v>362193</v>
       </c>
       <c r="S63" s="13" t="n">
-        <v>362193</v>
+        <v>687240</v>
       </c>
       <c r="T63" s="13" t="n">
-        <v>687240</v>
+        <v>353857</v>
       </c>
       <c r="U63" s="13" t="n">
-        <v>353857</v>
+        <v>271184</v>
       </c>
       <c r="V63" s="13" t="n">
-        <v>271184</v>
+        <v>202115</v>
       </c>
       <c r="W63" s="13" t="n">
-        <v>202115</v>
+        <v>491817</v>
       </c>
       <c r="X63" s="13" t="n">
-        <v>491817</v>
+        <v>700992</v>
       </c>
       <c r="Y63" s="13" t="n">
-        <v>700992</v>
+        <v>688932</v>
       </c>
       <c r="Z63" s="13" t="n">
-        <v>688932</v>
+        <v>548676</v>
       </c>
       <c r="AA63" s="13" t="n">
-        <v>548676</v>
+        <v>557748</v>
       </c>
       <c r="AB63" s="13" t="n">
-        <v>557748</v>
+        <v>1048644</v>
       </c>
       <c r="AC63" s="13" t="n">
-        <v>1048644</v>
+        <v>1078200</v>
       </c>
       <c r="AD63" s="13" t="n">
-        <v>1078200</v>
+        <v>1220150</v>
       </c>
       <c r="AE63" s="13" t="n">
-        <v>1220150</v>
+        <v>1124516</v>
       </c>
       <c r="AF63" s="13" t="n">
-        <v>1124516</v>
+        <v>568928</v>
       </c>
       <c r="AG63" s="13" t="n">
-        <v>568928</v>
+        <v>873540</v>
       </c>
       <c r="AH63" s="13" t="n">
-        <v>873540</v>
+        <v>772110</v>
       </c>
       <c r="AI63" s="13" t="n">
-        <v>772110</v>
+        <v>905815</v>
       </c>
       <c r="AJ63" s="13" t="n">
-        <v>905815</v>
+        <v>1608738</v>
       </c>
       <c r="AK63" s="13" t="n">
-        <v>1608738</v>
+        <v>1722291</v>
       </c>
       <c r="AL63" s="13" t="n">
-        <v>1722291</v>
+        <v>1919442</v>
       </c>
       <c r="AM63" s="13" t="n">
-        <v>1919442</v>
+        <v>2656071</v>
       </c>
       <c r="AN63" s="13" t="n">
-        <v>2656071</v>
+        <v>574217</v>
       </c>
       <c r="AO63" s="13" t="n">
-        <v>574217</v>
+        <v>1531367</v>
       </c>
       <c r="AP63" s="13" t="n">
-        <v>1531367</v>
+        <v>2295672</v>
       </c>
       <c r="AQ63" s="13" t="n">
-        <v>2295672</v>
+        <v>2558034</v>
       </c>
       <c r="AR63" s="13" t="n">
-        <v>2558034</v>
+        <v>1662248</v>
       </c>
       <c r="AS63" s="13" t="n">
-        <v>1662248</v>
+        <v>1233796</v>
       </c>
       <c r="AT63" s="13" t="n">
-        <v>1233796</v>
+        <v>2722588</v>
       </c>
       <c r="AU63" s="13" t="n">
-        <v>2722588</v>
+        <v>1697357</v>
       </c>
       <c r="AV63" s="13" t="n">
-        <v>1697357</v>
+        <v>1631869</v>
       </c>
       <c r="AW63" s="13" t="n">
-        <v>1631869</v>
+        <v>436041</v>
       </c>
       <c r="AX63" s="13" t="n">
-        <v>436041</v>
+        <v>2226905</v>
       </c>
       <c r="AY63" s="13" t="n">
-        <v>2226905</v>
+        <v>2153163</v>
       </c>
       <c r="AZ63" s="13" t="n">
-        <v>2153163</v>
+        <v>801816</v>
       </c>
       <c r="BA63" s="13" t="n">
-        <v>801816</v>
+        <v>1584281</v>
       </c>
       <c r="BB63" s="13" t="n">
-        <v>1584281</v>
+        <v>1299045</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10155,116 +10155,116 @@
       <c r="Q64" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R64" s="16" t="s">
-        <v>58</v>
+      <c r="R64" s="16" t="n">
+        <v>9127</v>
       </c>
       <c r="S64" s="16" t="n">
-        <v>9127</v>
+        <v>48676</v>
       </c>
       <c r="T64" s="16" t="n">
-        <v>48676</v>
+        <v>286241</v>
       </c>
       <c r="U64" s="16" t="n">
-        <v>286241</v>
+        <v>162151</v>
       </c>
       <c r="V64" s="16" t="n">
-        <v>162151</v>
+        <v>293764</v>
       </c>
       <c r="W64" s="16" t="n">
-        <v>293764</v>
+        <v>420303</v>
       </c>
       <c r="X64" s="16" t="n">
-        <v>420303</v>
+        <v>337437</v>
       </c>
       <c r="Y64" s="16" t="n">
-        <v>337437</v>
+        <v>331879</v>
       </c>
       <c r="Z64" s="16" t="n">
-        <v>331879</v>
+        <v>558464</v>
       </c>
       <c r="AA64" s="16" t="n">
-        <v>558464</v>
+        <v>284015</v>
       </c>
       <c r="AB64" s="16" t="n">
-        <v>284015</v>
+        <v>268893</v>
       </c>
       <c r="AC64" s="16" t="n">
-        <v>268893</v>
+        <v>571384</v>
       </c>
       <c r="AD64" s="16" t="n">
-        <v>571384</v>
+        <v>150207</v>
       </c>
       <c r="AE64" s="16" t="n">
-        <v>150207</v>
+        <v>593939</v>
       </c>
       <c r="AF64" s="16" t="n">
-        <v>593939</v>
+        <v>546193</v>
       </c>
       <c r="AG64" s="16" t="n">
-        <v>546193</v>
+        <v>462553</v>
       </c>
       <c r="AH64" s="16" t="n">
-        <v>462553</v>
+        <v>201313</v>
       </c>
       <c r="AI64" s="16" t="n">
-        <v>201313</v>
+        <v>488421</v>
       </c>
       <c r="AJ64" s="16" t="n">
-        <v>488421</v>
+        <v>203870</v>
       </c>
       <c r="AK64" s="16" t="n">
-        <v>203870</v>
+        <v>703418</v>
       </c>
       <c r="AL64" s="16" t="n">
-        <v>703418</v>
+        <v>1623437</v>
       </c>
       <c r="AM64" s="16" t="n">
-        <v>1623437</v>
+        <v>994576</v>
       </c>
       <c r="AN64" s="16" t="n">
-        <v>994576</v>
+        <v>817398</v>
       </c>
       <c r="AO64" s="16" t="n">
-        <v>817398</v>
+        <v>515416</v>
       </c>
       <c r="AP64" s="16" t="n">
-        <v>515416</v>
+        <v>69235</v>
       </c>
       <c r="AQ64" s="16" t="n">
-        <v>69235</v>
+        <v>444408</v>
       </c>
       <c r="AR64" s="16" t="n">
-        <v>444408</v>
+        <v>1199981</v>
       </c>
       <c r="AS64" s="16" t="n">
-        <v>1199981</v>
+        <v>669400</v>
       </c>
       <c r="AT64" s="16" t="n">
-        <v>669400</v>
+        <v>305549</v>
       </c>
       <c r="AU64" s="16" t="n">
-        <v>305549</v>
+        <v>721480</v>
       </c>
       <c r="AV64" s="16" t="n">
-        <v>721480</v>
+        <v>82795</v>
       </c>
       <c r="AW64" s="16" t="n">
-        <v>82795</v>
+        <v>420185</v>
       </c>
       <c r="AX64" s="16" t="n">
-        <v>420185</v>
+        <v>777523</v>
       </c>
       <c r="AY64" s="16" t="n">
-        <v>777523</v>
+        <v>300511</v>
       </c>
       <c r="AZ64" s="16" t="n">
-        <v>300511</v>
+        <v>333189</v>
       </c>
       <c r="BA64" s="16" t="n">
-        <v>333189</v>
+        <v>451018</v>
       </c>
       <c r="BB64" s="16" t="n">
-        <v>451018</v>
+        <v>154058</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10386,8 +10386,8 @@
       <c r="AO65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP65" s="13" t="s">
-        <v>58</v>
+      <c r="AP65" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ65" s="13" t="n">
         <v>0</v>
@@ -10545,44 +10545,44 @@
       <c r="AO66" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP66" s="16" t="s">
-        <v>58</v>
+      <c r="AP66" s="16" t="n">
+        <v>3432</v>
       </c>
       <c r="AQ66" s="16" t="n">
-        <v>3432</v>
+        <v>3816</v>
       </c>
       <c r="AR66" s="16" t="n">
-        <v>3816</v>
+        <v>81348</v>
       </c>
       <c r="AS66" s="16" t="n">
-        <v>81348</v>
+        <v>15959</v>
       </c>
       <c r="AT66" s="16" t="n">
-        <v>15959</v>
+        <v>183882</v>
       </c>
       <c r="AU66" s="16" t="n">
-        <v>183882</v>
+        <v>164203</v>
       </c>
       <c r="AV66" s="16" t="n">
-        <v>164203</v>
+        <v>22621</v>
       </c>
       <c r="AW66" s="16" t="n">
-        <v>22621</v>
+        <v>159204</v>
       </c>
       <c r="AX66" s="16" t="n">
-        <v>159204</v>
+        <v>178290</v>
       </c>
       <c r="AY66" s="16" t="n">
-        <v>178290</v>
+        <v>27864</v>
       </c>
       <c r="AZ66" s="16" t="n">
-        <v>27864</v>
+        <v>149278</v>
       </c>
       <c r="BA66" s="16" t="n">
-        <v>149278</v>
+        <v>120181</v>
       </c>
       <c r="BB66" s="16" t="n">
-        <v>120181</v>
+        <v>63895</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10631,115 +10631,115 @@
         <v>0</v>
       </c>
       <c r="R67" s="18" t="n">
-        <v>0</v>
+        <v>374139</v>
       </c>
       <c r="S67" s="18" t="n">
-        <v>374139</v>
+        <v>743978</v>
       </c>
       <c r="T67" s="18" t="n">
-        <v>743978</v>
+        <v>658028</v>
       </c>
       <c r="U67" s="18" t="n">
-        <v>658028</v>
+        <v>439744</v>
       </c>
       <c r="V67" s="18" t="n">
-        <v>439744</v>
+        <v>498526</v>
       </c>
       <c r="W67" s="18" t="n">
-        <v>498526</v>
+        <v>923436</v>
       </c>
       <c r="X67" s="18" t="n">
-        <v>923436</v>
+        <v>1039768</v>
       </c>
       <c r="Y67" s="18" t="n">
-        <v>1039768</v>
+        <v>1022039</v>
       </c>
       <c r="Z67" s="18" t="n">
-        <v>1022039</v>
+        <v>1111648</v>
       </c>
       <c r="AA67" s="18" t="n">
-        <v>1111648</v>
+        <v>841763</v>
       </c>
       <c r="AB67" s="18" t="n">
-        <v>841763</v>
+        <v>1318015</v>
       </c>
       <c r="AC67" s="18" t="n">
-        <v>1318015</v>
+        <v>1649866</v>
       </c>
       <c r="AD67" s="18" t="n">
-        <v>1649866</v>
+        <v>1370613</v>
       </c>
       <c r="AE67" s="18" t="n">
-        <v>1370613</v>
+        <v>1727918</v>
       </c>
       <c r="AF67" s="18" t="n">
-        <v>1727918</v>
+        <v>1147987</v>
       </c>
       <c r="AG67" s="18" t="n">
-        <v>1147987</v>
+        <v>1345291</v>
       </c>
       <c r="AH67" s="18" t="n">
-        <v>1345291</v>
+        <v>981623</v>
       </c>
       <c r="AI67" s="18" t="n">
-        <v>981623</v>
+        <v>1411855</v>
       </c>
       <c r="AJ67" s="18" t="n">
-        <v>1411855</v>
+        <v>1820646</v>
       </c>
       <c r="AK67" s="18" t="n">
-        <v>1820646</v>
+        <v>2440375</v>
       </c>
       <c r="AL67" s="18" t="n">
-        <v>2440375</v>
+        <v>3576000</v>
       </c>
       <c r="AM67" s="18" t="n">
-        <v>3576000</v>
+        <v>3650886</v>
       </c>
       <c r="AN67" s="18" t="n">
-        <v>3650886</v>
+        <v>1391615</v>
       </c>
       <c r="AO67" s="18" t="n">
-        <v>1391615</v>
+        <v>2051319</v>
       </c>
       <c r="AP67" s="18" t="n">
-        <v>2051319</v>
+        <v>2368339</v>
       </c>
       <c r="AQ67" s="18" t="n">
-        <v>2368339</v>
+        <v>3006258</v>
       </c>
       <c r="AR67" s="18" t="n">
-        <v>3006258</v>
+        <v>2943577</v>
       </c>
       <c r="AS67" s="18" t="n">
-        <v>2943577</v>
+        <v>1919155</v>
       </c>
       <c r="AT67" s="18" t="n">
-        <v>1919155</v>
+        <v>3212019</v>
       </c>
       <c r="AU67" s="18" t="n">
-        <v>3212019</v>
+        <v>2583040</v>
       </c>
       <c r="AV67" s="18" t="n">
-        <v>2583040</v>
+        <v>1737285</v>
       </c>
       <c r="AW67" s="18" t="n">
-        <v>1737285</v>
+        <v>1015430</v>
       </c>
       <c r="AX67" s="18" t="n">
-        <v>1015430</v>
+        <v>3182718</v>
       </c>
       <c r="AY67" s="18" t="n">
-        <v>3182718</v>
+        <v>2481538</v>
       </c>
       <c r="AZ67" s="18" t="n">
-        <v>2481538</v>
+        <v>1284283</v>
       </c>
       <c r="BA67" s="18" t="n">
-        <v>1284283</v>
+        <v>2155480</v>
       </c>
       <c r="BB67" s="18" t="n">
-        <v>2155480</v>
+        <v>1516998</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10846,80 +10846,80 @@
       <c r="Q69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R69" s="13" t="s">
-        <v>58</v>
+      <c r="R69" s="13" t="n">
+        <v>1026753</v>
       </c>
       <c r="S69" s="13" t="n">
-        <v>1026753</v>
+        <v>194816</v>
       </c>
       <c r="T69" s="13" t="n">
-        <v>194816</v>
+        <v>1058841</v>
       </c>
       <c r="U69" s="13" t="n">
-        <v>1058841</v>
+        <v>110820</v>
       </c>
       <c r="V69" s="13" t="n">
-        <v>110820</v>
+        <v>399920</v>
       </c>
       <c r="W69" s="13" t="n">
-        <v>399920</v>
+        <v>3493521</v>
       </c>
       <c r="X69" s="13" t="n">
-        <v>3493521</v>
+        <v>473935</v>
       </c>
       <c r="Y69" s="13" t="n">
-        <v>473935</v>
+        <v>2515143</v>
       </c>
       <c r="Z69" s="13" t="n">
-        <v>2515143</v>
+        <v>719636</v>
       </c>
       <c r="AA69" s="13" t="n">
-        <v>719636</v>
+        <v>3046219</v>
       </c>
       <c r="AB69" s="13" t="n">
-        <v>3046219</v>
+        <v>0</v>
       </c>
       <c r="AC69" s="13" t="n">
-        <v>0</v>
+        <v>32591</v>
       </c>
       <c r="AD69" s="13" t="n">
-        <v>32591</v>
+        <v>26776</v>
       </c>
       <c r="AE69" s="13" t="n">
-        <v>26776</v>
+        <v>1077370</v>
       </c>
       <c r="AF69" s="13" t="n">
-        <v>1077370</v>
+        <v>3890774</v>
       </c>
       <c r="AG69" s="13" t="n">
-        <v>3890774</v>
+        <v>2324264</v>
       </c>
       <c r="AH69" s="13" t="n">
-        <v>2324264</v>
+        <v>1418003</v>
       </c>
       <c r="AI69" s="13" t="n">
-        <v>1418003</v>
+        <v>2865832</v>
       </c>
       <c r="AJ69" s="13" t="n">
-        <v>2865832</v>
+        <v>2614693</v>
       </c>
       <c r="AK69" s="13" t="n">
-        <v>2614693</v>
+        <v>0</v>
       </c>
       <c r="AL69" s="13" t="n">
-        <v>0</v>
+        <v>67902</v>
       </c>
       <c r="AM69" s="13" t="n">
-        <v>67902</v>
+        <v>4549236</v>
       </c>
       <c r="AN69" s="13" t="n">
-        <v>4549236</v>
+        <v>461636</v>
       </c>
       <c r="AO69" s="13" t="n">
-        <v>461636</v>
-      </c>
-      <c r="AP69" s="13" t="n">
         <v>18223350</v>
+      </c>
+      <c r="AP69" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ69" s="13" t="s">
         <v>58</v>
@@ -11005,35 +11005,35 @@
       <c r="Q70" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R70" s="16" t="s">
-        <v>58</v>
+      <c r="R70" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="S70" s="16" t="n">
         <v>0</v>
       </c>
       <c r="T70" s="16" t="n">
-        <v>0</v>
+        <v>898</v>
       </c>
       <c r="U70" s="16" t="n">
-        <v>898</v>
+        <v>1464</v>
       </c>
       <c r="V70" s="16" t="n">
-        <v>1464</v>
+        <v>0</v>
       </c>
       <c r="W70" s="16" t="n">
-        <v>0</v>
+        <v>8901</v>
       </c>
       <c r="X70" s="16" t="n">
-        <v>8901</v>
+        <v>0</v>
       </c>
       <c r="Y70" s="16" t="n">
         <v>0</v>
       </c>
       <c r="Z70" s="16" t="n">
-        <v>0</v>
+        <v>4265</v>
       </c>
       <c r="AA70" s="16" t="n">
-        <v>4265</v>
+        <v>0</v>
       </c>
       <c r="AB70" s="16" t="n">
         <v>0</v>
@@ -11045,40 +11045,40 @@
         <v>0</v>
       </c>
       <c r="AE70" s="16" t="n">
-        <v>0</v>
+        <v>23044</v>
       </c>
       <c r="AF70" s="16" t="n">
-        <v>23044</v>
+        <v>22763</v>
       </c>
       <c r="AG70" s="16" t="n">
-        <v>22763</v>
+        <v>0</v>
       </c>
       <c r="AH70" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AI70" s="16" t="n">
-        <v>0</v>
+        <v>34788</v>
       </c>
       <c r="AJ70" s="16" t="n">
-        <v>34788</v>
+        <v>0</v>
       </c>
       <c r="AK70" s="16" t="n">
-        <v>0</v>
+        <v>36233</v>
       </c>
       <c r="AL70" s="16" t="n">
-        <v>36233</v>
+        <v>21557</v>
       </c>
       <c r="AM70" s="16" t="n">
-        <v>21557</v>
+        <v>1828</v>
       </c>
       <c r="AN70" s="16" t="n">
-        <v>1828</v>
+        <v>0</v>
       </c>
       <c r="AO70" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP70" s="16" t="n">
         <v>15303</v>
+      </c>
+      <c r="AP70" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ70" s="16" t="s">
         <v>58</v>
@@ -11236,38 +11236,38 @@
       <c r="AO71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP71" s="13" t="s">
-        <v>58</v>
+      <c r="AP71" s="13" t="n">
+        <v>1269420</v>
       </c>
       <c r="AQ71" s="13" t="n">
-        <v>1269420</v>
+        <v>4264982</v>
       </c>
       <c r="AR71" s="13" t="n">
-        <v>4264982</v>
+        <v>4739842</v>
       </c>
       <c r="AS71" s="13" t="n">
-        <v>4739842</v>
+        <v>1960084</v>
       </c>
       <c r="AT71" s="13" t="n">
-        <v>1960084</v>
+        <v>2730094</v>
       </c>
       <c r="AU71" s="13" t="n">
-        <v>2730094</v>
+        <v>6664404</v>
       </c>
       <c r="AV71" s="13" t="n">
-        <v>6664404</v>
+        <v>6138565</v>
       </c>
       <c r="AW71" s="13" t="n">
-        <v>6138565</v>
+        <v>5112159</v>
       </c>
       <c r="AX71" s="13" t="n">
-        <v>5112159</v>
+        <v>2488596</v>
       </c>
       <c r="AY71" s="13" t="n">
-        <v>2488596</v>
+        <v>8578652</v>
       </c>
       <c r="AZ71" s="13" t="n">
-        <v>8578652</v>
+        <v>0</v>
       </c>
       <c r="BA71" s="13" t="n">
         <v>0</v>
@@ -11395,44 +11395,44 @@
       <c r="AO72" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP72" s="16" t="s">
-        <v>58</v>
+      <c r="AP72" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ72" s="16" t="n">
-        <v>0</v>
+        <v>24358</v>
       </c>
       <c r="AR72" s="16" t="n">
-        <v>24358</v>
+        <v>227908</v>
       </c>
       <c r="AS72" s="16" t="n">
-        <v>227908</v>
+        <v>31962</v>
       </c>
       <c r="AT72" s="16" t="n">
-        <v>31962</v>
+        <v>95026</v>
       </c>
       <c r="AU72" s="16" t="n">
-        <v>95026</v>
+        <v>173089</v>
       </c>
       <c r="AV72" s="16" t="n">
-        <v>173089</v>
+        <v>1868</v>
       </c>
       <c r="AW72" s="16" t="n">
-        <v>1868</v>
+        <v>125252</v>
       </c>
       <c r="AX72" s="16" t="n">
-        <v>125252</v>
+        <v>365762</v>
       </c>
       <c r="AY72" s="16" t="n">
-        <v>365762</v>
+        <v>128025</v>
       </c>
       <c r="AZ72" s="16" t="n">
-        <v>128025</v>
+        <v>73594</v>
       </c>
       <c r="BA72" s="16" t="n">
-        <v>73594</v>
+        <v>79955</v>
       </c>
       <c r="BB72" s="16" t="n">
-        <v>79955</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11584,14 +11584,14 @@
       <c r="AY73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ73" s="13" t="s">
-        <v>58</v>
+      <c r="AZ73" s="13" t="n">
+        <v>2182595</v>
       </c>
       <c r="BA73" s="13" t="n">
-        <v>2182595</v>
+        <v>3716037</v>
       </c>
       <c r="BB73" s="13" t="n">
-        <v>3716037</v>
+        <v>893570</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11743,14 +11743,14 @@
       <c r="AY74" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AZ74" s="16" t="s">
-        <v>58</v>
+      <c r="AZ74" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BA74" s="16" t="n">
-        <v>0</v>
+        <v>3658035</v>
       </c>
       <c r="BB74" s="16" t="n">
-        <v>3658035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11799,115 +11799,115 @@
         <v>0</v>
       </c>
       <c r="R75" s="18" t="n">
-        <v>0</v>
+        <v>1026753</v>
       </c>
       <c r="S75" s="18" t="n">
-        <v>1026753</v>
+        <v>194816</v>
       </c>
       <c r="T75" s="18" t="n">
-        <v>194816</v>
+        <v>1059739</v>
       </c>
       <c r="U75" s="18" t="n">
-        <v>1059739</v>
+        <v>112284</v>
       </c>
       <c r="V75" s="18" t="n">
-        <v>112284</v>
+        <v>399920</v>
       </c>
       <c r="W75" s="18" t="n">
-        <v>399920</v>
+        <v>3502422</v>
       </c>
       <c r="X75" s="18" t="n">
-        <v>3502422</v>
+        <v>473935</v>
       </c>
       <c r="Y75" s="18" t="n">
-        <v>473935</v>
+        <v>2515143</v>
       </c>
       <c r="Z75" s="18" t="n">
-        <v>2515143</v>
+        <v>723901</v>
       </c>
       <c r="AA75" s="18" t="n">
-        <v>723901</v>
+        <v>3046219</v>
       </c>
       <c r="AB75" s="18" t="n">
-        <v>3046219</v>
+        <v>0</v>
       </c>
       <c r="AC75" s="18" t="n">
-        <v>0</v>
+        <v>32591</v>
       </c>
       <c r="AD75" s="18" t="n">
-        <v>32591</v>
+        <v>26776</v>
       </c>
       <c r="AE75" s="18" t="n">
-        <v>26776</v>
+        <v>1100414</v>
       </c>
       <c r="AF75" s="18" t="n">
-        <v>1100414</v>
+        <v>3913537</v>
       </c>
       <c r="AG75" s="18" t="n">
-        <v>3913537</v>
+        <v>2324264</v>
       </c>
       <c r="AH75" s="18" t="n">
-        <v>2324264</v>
+        <v>1418003</v>
       </c>
       <c r="AI75" s="18" t="n">
-        <v>1418003</v>
+        <v>2900620</v>
       </c>
       <c r="AJ75" s="18" t="n">
-        <v>2900620</v>
+        <v>2614693</v>
       </c>
       <c r="AK75" s="18" t="n">
-        <v>2614693</v>
+        <v>36233</v>
       </c>
       <c r="AL75" s="18" t="n">
-        <v>36233</v>
+        <v>89459</v>
       </c>
       <c r="AM75" s="18" t="n">
-        <v>89459</v>
+        <v>4551064</v>
       </c>
       <c r="AN75" s="18" t="n">
-        <v>4551064</v>
+        <v>461636</v>
       </c>
       <c r="AO75" s="18" t="n">
-        <v>461636</v>
+        <v>18238653</v>
       </c>
       <c r="AP75" s="18" t="n">
-        <v>18238653</v>
+        <v>1269420</v>
       </c>
       <c r="AQ75" s="18" t="n">
-        <v>1269420</v>
+        <v>4289340</v>
       </c>
       <c r="AR75" s="18" t="n">
-        <v>4289340</v>
+        <v>4967750</v>
       </c>
       <c r="AS75" s="18" t="n">
-        <v>4967750</v>
+        <v>1992046</v>
       </c>
       <c r="AT75" s="18" t="n">
-        <v>1992046</v>
+        <v>2825120</v>
       </c>
       <c r="AU75" s="18" t="n">
-        <v>2825120</v>
+        <v>6837493</v>
       </c>
       <c r="AV75" s="18" t="n">
-        <v>6837493</v>
+        <v>6140433</v>
       </c>
       <c r="AW75" s="18" t="n">
-        <v>6140433</v>
+        <v>5237411</v>
       </c>
       <c r="AX75" s="18" t="n">
-        <v>5237411</v>
+        <v>2854358</v>
       </c>
       <c r="AY75" s="18" t="n">
-        <v>2854358</v>
+        <v>8706677</v>
       </c>
       <c r="AZ75" s="18" t="n">
-        <v>8706677</v>
+        <v>2256189</v>
       </c>
       <c r="BA75" s="18" t="n">
-        <v>2256189</v>
+        <v>7454027</v>
       </c>
       <c r="BB75" s="18" t="n">
-        <v>7454027</v>
+        <v>898322</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12014,8 +12014,8 @@
       <c r="Q77" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="R77" s="18" t="s">
-        <v>58</v>
+      <c r="R77" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="S77" s="23" t="n">
         <v>0</v>
@@ -12230,8 +12230,8 @@
       <c r="Q79" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="R79" s="18" t="s">
-        <v>58</v>
+      <c r="R79" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="S79" s="23" t="n">
         <v>0</v>
@@ -12446,8 +12446,8 @@
       <c r="Q81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R81" s="13" t="s">
-        <v>58</v>
+      <c r="R81" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="S81" s="13" t="n">
         <v>0</v>
@@ -12604,115 +12604,115 @@
         <v>0</v>
       </c>
       <c r="R82" s="22" t="n">
-        <v>0</v>
+        <v>1400892</v>
       </c>
       <c r="S82" s="22" t="n">
-        <v>1400892</v>
+        <v>938794</v>
       </c>
       <c r="T82" s="22" t="n">
-        <v>938794</v>
+        <v>1717767</v>
       </c>
       <c r="U82" s="22" t="n">
-        <v>1717767</v>
+        <v>552028</v>
       </c>
       <c r="V82" s="22" t="n">
-        <v>552028</v>
+        <v>898446</v>
       </c>
       <c r="W82" s="22" t="n">
-        <v>898446</v>
+        <v>4425858</v>
       </c>
       <c r="X82" s="22" t="n">
-        <v>4425858</v>
+        <v>1513703</v>
       </c>
       <c r="Y82" s="22" t="n">
-        <v>1513703</v>
+        <v>3537182</v>
       </c>
       <c r="Z82" s="22" t="n">
-        <v>3537182</v>
+        <v>1835549</v>
       </c>
       <c r="AA82" s="22" t="n">
-        <v>1835549</v>
+        <v>3887982</v>
       </c>
       <c r="AB82" s="22" t="n">
-        <v>3887982</v>
+        <v>1318015</v>
       </c>
       <c r="AC82" s="22" t="n">
-        <v>1318015</v>
+        <v>1682457</v>
       </c>
       <c r="AD82" s="22" t="n">
-        <v>1682457</v>
+        <v>1397389</v>
       </c>
       <c r="AE82" s="22" t="n">
-        <v>1397389</v>
+        <v>2828332</v>
       </c>
       <c r="AF82" s="22" t="n">
-        <v>2828332</v>
+        <v>5061524</v>
       </c>
       <c r="AG82" s="22" t="n">
-        <v>5061524</v>
+        <v>3669555</v>
       </c>
       <c r="AH82" s="22" t="n">
-        <v>3669555</v>
+        <v>2399626</v>
       </c>
       <c r="AI82" s="22" t="n">
-        <v>2399626</v>
+        <v>4312475</v>
       </c>
       <c r="AJ82" s="22" t="n">
-        <v>4312475</v>
+        <v>4435339</v>
       </c>
       <c r="AK82" s="22" t="n">
-        <v>4435339</v>
+        <v>2476608</v>
       </c>
       <c r="AL82" s="22" t="n">
-        <v>2476608</v>
+        <v>3665459</v>
       </c>
       <c r="AM82" s="22" t="n">
-        <v>3665459</v>
+        <v>8201950</v>
       </c>
       <c r="AN82" s="22" t="n">
-        <v>8201950</v>
+        <v>1853251</v>
       </c>
       <c r="AO82" s="22" t="n">
-        <v>1853251</v>
+        <v>20289972</v>
       </c>
       <c r="AP82" s="22" t="n">
-        <v>20289972</v>
+        <v>3637759</v>
       </c>
       <c r="AQ82" s="22" t="n">
-        <v>3637759</v>
+        <v>7295598</v>
       </c>
       <c r="AR82" s="22" t="n">
-        <v>7295598</v>
+        <v>7911327</v>
       </c>
       <c r="AS82" s="22" t="n">
-        <v>7911327</v>
+        <v>3911201</v>
       </c>
       <c r="AT82" s="22" t="n">
-        <v>3911201</v>
+        <v>6037139</v>
       </c>
       <c r="AU82" s="22" t="n">
-        <v>6037139</v>
+        <v>9420533</v>
       </c>
       <c r="AV82" s="22" t="n">
-        <v>9420533</v>
+        <v>7877718</v>
       </c>
       <c r="AW82" s="22" t="n">
-        <v>7877718</v>
+        <v>6252841</v>
       </c>
       <c r="AX82" s="22" t="n">
-        <v>6252841</v>
+        <v>6037076</v>
       </c>
       <c r="AY82" s="22" t="n">
-        <v>6037076</v>
+        <v>11188215</v>
       </c>
       <c r="AZ82" s="22" t="n">
-        <v>11188215</v>
+        <v>3540472</v>
       </c>
       <c r="BA82" s="22" t="n">
-        <v>3540472</v>
+        <v>9609507</v>
       </c>
       <c r="BB82" s="22" t="n">
-        <v>9609507</v>
+        <v>2415320</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13196,80 +13196,80 @@
       <c r="Q89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R89" s="13" t="s">
-        <v>58</v>
+      <c r="R89" s="13" t="n">
+        <v>16485380</v>
       </c>
       <c r="S89" s="13" t="n">
-        <v>16485380</v>
+        <v>14658182</v>
       </c>
       <c r="T89" s="13" t="n">
-        <v>14658182</v>
+        <v>12264022</v>
       </c>
       <c r="U89" s="13" t="n">
-        <v>12264022</v>
+        <v>14632420</v>
       </c>
       <c r="V89" s="13" t="n">
-        <v>14632420</v>
+        <v>15570588</v>
       </c>
       <c r="W89" s="13" t="n">
-        <v>15570588</v>
+        <v>16990991</v>
       </c>
       <c r="X89" s="13" t="n">
-        <v>16990991</v>
+        <v>24345455</v>
       </c>
       <c r="Y89" s="13" t="n">
-        <v>24345455</v>
+        <v>26695652</v>
       </c>
       <c r="Z89" s="13" t="n">
-        <v>26695652</v>
-      </c>
-      <c r="AA89" s="13" t="n">
         <v>23726316</v>
       </c>
-      <c r="AB89" s="13" t="s">
-        <v>58</v>
+      <c r="AA89" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB89" s="13" t="n">
+        <v>17071429</v>
       </c>
       <c r="AC89" s="13" t="n">
-        <v>17071429</v>
+        <v>23500000</v>
       </c>
       <c r="AD89" s="13" t="n">
-        <v>23500000</v>
+        <v>28444444</v>
       </c>
       <c r="AE89" s="13" t="n">
-        <v>28444444</v>
+        <v>39429167</v>
       </c>
       <c r="AF89" s="13" t="n">
-        <v>39429167</v>
+        <v>48120059</v>
       </c>
       <c r="AG89" s="13" t="n">
-        <v>48120059</v>
+        <v>56777778</v>
       </c>
       <c r="AH89" s="13" t="n">
-        <v>56777778</v>
+        <v>68333333</v>
       </c>
       <c r="AI89" s="13" t="n">
-        <v>68333333</v>
+        <v>75294872</v>
       </c>
       <c r="AJ89" s="13" t="n">
-        <v>75294872</v>
+        <v>76552381</v>
       </c>
       <c r="AK89" s="13" t="n">
-        <v>76552381</v>
+        <v>91662500</v>
       </c>
       <c r="AL89" s="13" t="n">
-        <v>91662500</v>
+        <v>97702065</v>
       </c>
       <c r="AM89" s="13" t="n">
-        <v>97702065</v>
-      </c>
-      <c r="AN89" s="13" t="n">
         <v>119500000</v>
       </c>
-      <c r="AO89" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP89" s="13" t="n">
+      <c r="AN89" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO89" s="13" t="n">
         <v>108000000</v>
+      </c>
+      <c r="AP89" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ89" s="13" t="s">
         <v>58</v>
@@ -13355,26 +13355,26 @@
       <c r="Q90" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R90" s="16" t="s">
-        <v>58</v>
+      <c r="R90" s="16" t="n">
+        <v>22229976</v>
       </c>
       <c r="S90" s="16" t="n">
-        <v>22229976</v>
+        <v>22229985</v>
       </c>
       <c r="T90" s="16" t="n">
-        <v>22229985</v>
+        <v>22229991</v>
       </c>
       <c r="U90" s="16" t="n">
-        <v>22229991</v>
+        <v>22230019</v>
       </c>
       <c r="V90" s="16" t="n">
-        <v>22230019</v>
+        <v>22229982</v>
       </c>
       <c r="W90" s="16" t="n">
-        <v>22229982</v>
+        <v>22230022</v>
       </c>
       <c r="X90" s="16" t="n">
-        <v>22230022</v>
+        <v>36000000</v>
       </c>
       <c r="Y90" s="16" t="n">
         <v>36000000</v>
@@ -13392,7 +13392,7 @@
         <v>36000000</v>
       </c>
       <c r="AD90" s="16" t="n">
-        <v>36000000</v>
+        <v>46000000</v>
       </c>
       <c r="AE90" s="16" t="n">
         <v>46000000</v>
@@ -13407,64 +13407,64 @@
         <v>46000000</v>
       </c>
       <c r="AI90" s="16" t="n">
-        <v>46000000</v>
+        <v>46066979</v>
       </c>
       <c r="AJ90" s="16" t="n">
-        <v>46066979</v>
+        <v>68299992</v>
       </c>
       <c r="AK90" s="16" t="n">
-        <v>68299992</v>
+        <v>90228992</v>
       </c>
       <c r="AL90" s="16" t="n">
-        <v>90228992</v>
+        <v>90229023</v>
       </c>
       <c r="AM90" s="16" t="n">
-        <v>90229023</v>
+        <v>90228998</v>
       </c>
       <c r="AN90" s="16" t="n">
-        <v>90228998</v>
+        <v>90228944</v>
       </c>
       <c r="AO90" s="16" t="n">
-        <v>90228944</v>
+        <v>90229024</v>
       </c>
       <c r="AP90" s="16" t="n">
-        <v>90229024</v>
+        <v>145112010</v>
       </c>
       <c r="AQ90" s="16" t="n">
-        <v>145112010</v>
+        <v>145111981</v>
       </c>
       <c r="AR90" s="16" t="n">
-        <v>145111981</v>
+        <v>116648982</v>
       </c>
       <c r="AS90" s="16" t="n">
-        <v>116648982</v>
+        <v>116648955</v>
       </c>
       <c r="AT90" s="16" t="n">
-        <v>116648955</v>
+        <v>116649015</v>
       </c>
       <c r="AU90" s="16" t="n">
-        <v>116649015</v>
+        <v>108603046</v>
       </c>
       <c r="AV90" s="16" t="n">
-        <v>108603046</v>
+        <v>108603021</v>
       </c>
       <c r="AW90" s="16" t="n">
-        <v>108603021</v>
+        <v>108602989</v>
       </c>
       <c r="AX90" s="16" t="n">
-        <v>108602989</v>
+        <v>108603024</v>
       </c>
       <c r="AY90" s="16" t="n">
-        <v>108603024</v>
+        <v>108602996</v>
       </c>
       <c r="AZ90" s="16" t="n">
-        <v>108602996</v>
+        <v>108603007</v>
       </c>
       <c r="BA90" s="16" t="n">
-        <v>108603007</v>
+        <v>81216025</v>
       </c>
       <c r="BB90" s="16" t="n">
-        <v>81216025</v>
+        <v>68717996</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13514,116 +13514,116 @@
       <c r="Q91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R91" s="13" t="s">
-        <v>58</v>
+      <c r="R91" s="13" t="n">
+        <v>26077143</v>
       </c>
       <c r="S91" s="13" t="n">
-        <v>26077143</v>
+        <v>25740878</v>
       </c>
       <c r="T91" s="13" t="n">
-        <v>25740878</v>
+        <v>25250618</v>
       </c>
       <c r="U91" s="13" t="n">
-        <v>25250618</v>
+        <v>26259271</v>
       </c>
       <c r="V91" s="13" t="n">
-        <v>26259271</v>
+        <v>29739218</v>
       </c>
       <c r="W91" s="13" t="n">
-        <v>29739218</v>
+        <v>33120804</v>
       </c>
       <c r="X91" s="13" t="n">
-        <v>33120804</v>
+        <v>38458742</v>
       </c>
       <c r="Y91" s="13" t="n">
-        <v>38458742</v>
+        <v>41761545</v>
       </c>
       <c r="Z91" s="13" t="n">
-        <v>41761545</v>
+        <v>46823510</v>
       </c>
       <c r="AA91" s="13" t="n">
-        <v>46823510</v>
+        <v>47155072</v>
       </c>
       <c r="AB91" s="13" t="n">
-        <v>47155072</v>
+        <v>48871865</v>
       </c>
       <c r="AC91" s="13" t="n">
-        <v>48871865</v>
+        <v>54277952</v>
       </c>
       <c r="AD91" s="13" t="n">
-        <v>54277952</v>
+        <v>48469506</v>
       </c>
       <c r="AE91" s="13" t="n">
-        <v>48469506</v>
+        <v>54907923</v>
       </c>
       <c r="AF91" s="13" t="n">
-        <v>54907923</v>
+        <v>56413241</v>
       </c>
       <c r="AG91" s="13" t="n">
-        <v>56413241</v>
+        <v>65120794</v>
       </c>
       <c r="AH91" s="13" t="n">
-        <v>65120794</v>
+        <v>78179806</v>
       </c>
       <c r="AI91" s="13" t="n">
-        <v>78179806</v>
+        <v>82073769</v>
       </c>
       <c r="AJ91" s="13" t="n">
-        <v>82073769</v>
+        <v>95848613</v>
       </c>
       <c r="AK91" s="13" t="n">
-        <v>95848613</v>
+        <v>123406667</v>
       </c>
       <c r="AL91" s="13" t="n">
-        <v>123406667</v>
+        <v>162489941</v>
       </c>
       <c r="AM91" s="13" t="n">
-        <v>162489941</v>
+        <v>187126246</v>
       </c>
       <c r="AN91" s="13" t="n">
-        <v>187126246</v>
+        <v>182658771</v>
       </c>
       <c r="AO91" s="13" t="n">
-        <v>182658771</v>
+        <v>151548368</v>
       </c>
       <c r="AP91" s="13" t="n">
-        <v>151548368</v>
+        <v>153855556</v>
       </c>
       <c r="AQ91" s="13" t="n">
-        <v>153855556</v>
+        <v>158603854</v>
       </c>
       <c r="AR91" s="13" t="n">
-        <v>158603854</v>
+        <v>140628267</v>
       </c>
       <c r="AS91" s="13" t="n">
-        <v>140628267</v>
+        <v>120961330</v>
       </c>
       <c r="AT91" s="13" t="n">
-        <v>120961330</v>
+        <v>116577261</v>
       </c>
       <c r="AU91" s="13" t="n">
-        <v>116577261</v>
+        <v>121461279</v>
       </c>
       <c r="AV91" s="13" t="n">
-        <v>121461279</v>
+        <v>139620573</v>
       </c>
       <c r="AW91" s="13" t="n">
-        <v>139620573</v>
+        <v>139411082</v>
       </c>
       <c r="AX91" s="13" t="n">
-        <v>139411082</v>
+        <v>128388871</v>
       </c>
       <c r="AY91" s="13" t="n">
-        <v>128388871</v>
+        <v>123362479</v>
       </c>
       <c r="AZ91" s="13" t="n">
-        <v>123362479</v>
+        <v>110841317</v>
       </c>
       <c r="BA91" s="13" t="n">
-        <v>110841317</v>
+        <v>91763581</v>
       </c>
       <c r="BB91" s="13" t="n">
-        <v>91763581</v>
+        <v>85020971</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13745,44 +13745,44 @@
       <c r="AO92" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP92" s="16" t="s">
-        <v>58</v>
+      <c r="AP92" s="16" t="n">
+        <v>163428571</v>
       </c>
       <c r="AQ92" s="16" t="n">
-        <v>163428571</v>
+        <v>159000000</v>
       </c>
       <c r="AR92" s="16" t="n">
-        <v>159000000</v>
+        <v>194612440</v>
       </c>
       <c r="AS92" s="16" t="n">
-        <v>194612440</v>
+        <v>197024691</v>
       </c>
       <c r="AT92" s="16" t="n">
-        <v>197024691</v>
+        <v>195411265</v>
       </c>
       <c r="AU92" s="16" t="n">
-        <v>195411265</v>
+        <v>204486924</v>
       </c>
       <c r="AV92" s="16" t="n">
-        <v>204486924</v>
+        <v>211411215</v>
       </c>
       <c r="AW92" s="16" t="n">
-        <v>211411215</v>
+        <v>210031662</v>
       </c>
       <c r="AX92" s="16" t="n">
-        <v>210031662</v>
+        <v>201685520</v>
       </c>
       <c r="AY92" s="16" t="n">
-        <v>201685520</v>
+        <v>194853147</v>
       </c>
       <c r="AZ92" s="16" t="n">
-        <v>194853147</v>
+        <v>186132170</v>
       </c>
       <c r="BA92" s="16" t="n">
-        <v>186132170</v>
+        <v>195099026</v>
       </c>
       <c r="BB92" s="16" t="n">
-        <v>195099026</v>
+        <v>149988263</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13889,80 +13889,80 @@
       <c r="Q94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R94" s="13" t="s">
-        <v>58</v>
+      <c r="R94" s="13" t="n">
+        <v>27761336</v>
       </c>
       <c r="S94" s="13" t="n">
-        <v>27761336</v>
+        <v>29077015</v>
       </c>
       <c r="T94" s="13" t="n">
-        <v>29077015</v>
+        <v>30830451</v>
       </c>
       <c r="U94" s="13" t="n">
-        <v>30830451</v>
+        <v>32574956</v>
       </c>
       <c r="V94" s="13" t="n">
-        <v>32574956</v>
+        <v>35548444</v>
       </c>
       <c r="W94" s="13" t="n">
-        <v>35548444</v>
+        <v>39980785</v>
       </c>
       <c r="X94" s="13" t="n">
-        <v>39980785</v>
+        <v>46605861</v>
       </c>
       <c r="Y94" s="13" t="n">
-        <v>46605861</v>
+        <v>51329449</v>
       </c>
       <c r="Z94" s="13" t="n">
-        <v>51329449</v>
+        <v>50685730</v>
       </c>
       <c r="AA94" s="13" t="n">
-        <v>50685730</v>
-      </c>
-      <c r="AB94" s="13" t="n">
         <v>51451187</v>
       </c>
-      <c r="AC94" s="13" t="s">
-        <v>58</v>
+      <c r="AB94" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC94" s="13" t="n">
+        <v>65182000</v>
       </c>
       <c r="AD94" s="13" t="n">
-        <v>65182000</v>
+        <v>66940000</v>
       </c>
       <c r="AE94" s="13" t="n">
-        <v>66940000</v>
+        <v>49422909</v>
       </c>
       <c r="AF94" s="13" t="n">
-        <v>49422909</v>
+        <v>57013525</v>
       </c>
       <c r="AG94" s="13" t="n">
-        <v>57013525</v>
+        <v>64476920</v>
       </c>
       <c r="AH94" s="13" t="n">
-        <v>64476920</v>
+        <v>69333219</v>
       </c>
       <c r="AI94" s="13" t="n">
-        <v>69333219</v>
+        <v>78625806</v>
       </c>
       <c r="AJ94" s="13" t="n">
-        <v>78625806</v>
-      </c>
-      <c r="AK94" s="13" t="n">
         <v>92424638</v>
       </c>
-      <c r="AL94" s="13" t="s">
-        <v>58</v>
+      <c r="AK94" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL94" s="13" t="n">
+        <v>91021448</v>
       </c>
       <c r="AM94" s="13" t="n">
-        <v>91021448</v>
+        <v>182064113</v>
       </c>
       <c r="AN94" s="13" t="n">
-        <v>182064113</v>
+        <v>147770807</v>
       </c>
       <c r="AO94" s="13" t="n">
-        <v>147770807</v>
-      </c>
-      <c r="AP94" s="13" t="n">
         <v>144426877</v>
+      </c>
+      <c r="AP94" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ94" s="13" t="s">
         <v>58</v>
@@ -14054,30 +14054,30 @@
       <c r="S95" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T95" s="16" t="s">
-        <v>58</v>
+      <c r="T95" s="16" t="n">
+        <v>22450000</v>
       </c>
       <c r="U95" s="16" t="n">
-        <v>22450000</v>
-      </c>
-      <c r="V95" s="16" t="n">
         <v>22875000</v>
       </c>
-      <c r="W95" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="X95" s="16" t="n">
+      <c r="V95" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="W95" s="16" t="n">
         <v>25358974</v>
       </c>
+      <c r="X95" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="Y95" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z95" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA95" s="16" t="n">
+      <c r="Z95" s="16" t="n">
         <v>29825175</v>
       </c>
+      <c r="AA95" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AB95" s="16" t="s">
         <v>58</v>
       </c>
@@ -14087,41 +14087,41 @@
       <c r="AD95" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AE95" s="16" t="s">
-        <v>58</v>
+      <c r="AE95" s="16" t="n">
+        <v>46088000</v>
       </c>
       <c r="AF95" s="16" t="n">
-        <v>46088000</v>
-      </c>
-      <c r="AG95" s="16" t="n">
         <v>45526000</v>
       </c>
+      <c r="AG95" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AH95" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI95" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ95" s="16" t="n">
+      <c r="AI95" s="16" t="n">
         <v>61031579</v>
       </c>
-      <c r="AK95" s="16" t="s">
-        <v>58</v>
+      <c r="AJ95" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK95" s="16" t="n">
+        <v>65284685</v>
       </c>
       <c r="AL95" s="16" t="n">
-        <v>65284685</v>
+        <v>81041353</v>
       </c>
       <c r="AM95" s="16" t="n">
-        <v>81041353</v>
-      </c>
-      <c r="AN95" s="16" t="n">
         <v>87047619</v>
       </c>
-      <c r="AO95" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP95" s="16" t="n">
+      <c r="AN95" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO95" s="16" t="n">
         <v>153030000</v>
+      </c>
+      <c r="AP95" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ95" s="16" t="s">
         <v>58</v>
@@ -14279,38 +14279,38 @@
       <c r="AO96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP96" s="13" t="s">
-        <v>58</v>
+      <c r="AP96" s="13" t="n">
+        <v>133848587</v>
       </c>
       <c r="AQ96" s="13" t="n">
-        <v>133848587</v>
+        <v>135719395</v>
       </c>
       <c r="AR96" s="13" t="n">
-        <v>135719395</v>
+        <v>139202408</v>
       </c>
       <c r="AS96" s="13" t="n">
-        <v>139202408</v>
+        <v>134482607</v>
       </c>
       <c r="AT96" s="13" t="n">
-        <v>134482607</v>
+        <v>138808928</v>
       </c>
       <c r="AU96" s="13" t="n">
-        <v>138808928</v>
+        <v>135372821</v>
       </c>
       <c r="AV96" s="13" t="n">
-        <v>135372821</v>
+        <v>143746839</v>
       </c>
       <c r="AW96" s="13" t="n">
-        <v>143746839</v>
+        <v>137927882</v>
       </c>
       <c r="AX96" s="13" t="n">
-        <v>137927882</v>
+        <v>146310541</v>
       </c>
       <c r="AY96" s="13" t="n">
-        <v>146310541</v>
-      </c>
-      <c r="AZ96" s="13" t="n">
         <v>126584802</v>
+      </c>
+      <c r="AZ96" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BA96" s="13" t="s">
         <v>58</v>
@@ -14441,41 +14441,41 @@
       <c r="AP97" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AQ97" s="16" t="s">
-        <v>58</v>
+      <c r="AQ97" s="16" t="n">
+        <v>152237500</v>
       </c>
       <c r="AR97" s="16" t="n">
-        <v>152237500</v>
+        <v>174508423</v>
       </c>
       <c r="AS97" s="16" t="n">
-        <v>174508423</v>
+        <v>164752577</v>
       </c>
       <c r="AT97" s="16" t="n">
-        <v>164752577</v>
+        <v>190432866</v>
       </c>
       <c r="AU97" s="16" t="n">
-        <v>190432866</v>
+        <v>194920045</v>
       </c>
       <c r="AV97" s="16" t="n">
-        <v>194920045</v>
+        <v>207555556</v>
       </c>
       <c r="AW97" s="16" t="n">
-        <v>207555556</v>
+        <v>208753333</v>
       </c>
       <c r="AX97" s="16" t="n">
-        <v>208753333</v>
+        <v>205138531</v>
       </c>
       <c r="AY97" s="16" t="n">
-        <v>205138531</v>
+        <v>203861465</v>
       </c>
       <c r="AZ97" s="16" t="n">
-        <v>203861465</v>
+        <v>204427778</v>
       </c>
       <c r="BA97" s="16" t="n">
-        <v>204427778</v>
+        <v>240105105</v>
       </c>
       <c r="BB97" s="16" t="n">
-        <v>240105105</v>
+        <v>250105263</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14627,14 +14627,14 @@
       <c r="AY98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ98" s="13" t="s">
-        <v>58</v>
+      <c r="AZ98" s="13" t="n">
+        <v>139802396</v>
       </c>
       <c r="BA98" s="13" t="n">
-        <v>139802396</v>
+        <v>165311491</v>
       </c>
       <c r="BB98" s="13" t="n">
-        <v>165311491</v>
+        <v>125872658</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14789,11 +14789,11 @@
       <c r="AZ99" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="BA99" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB99" s="16" t="n">
+      <c r="BA99" s="16" t="n">
         <v>119935574</v>
+      </c>
+      <c r="BB99" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
